--- a/data/evaluation_results/results.xlsx
+++ b/data/evaluation_results/results.xlsx
@@ -5,38 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Python Scripts\rag_evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\Python Scripts\rag_evaluation\data\evaluation_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$189</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="23">
   <si>
-    <t>sample_size</t>
+    <t>sample size</t>
   </si>
   <si>
-    <t>model</t>
+    <t>LLM</t>
   </si>
   <si>
-    <t>label</t>
+    <t>Embedding Model</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>exact_match</t>
+    <t>difficulty level</t>
   </si>
   <si>
     <t>f1</t>
@@ -60,7 +57,7 @@
     <t>google/flan-t5-large</t>
   </si>
   <si>
-    <t>MiniLM</t>
+    <t>sentence-transformers/all-MiniLM-L6-v2</t>
   </si>
   <si>
     <t>all</t>
@@ -75,13 +72,13 @@
     <t>hard</t>
   </si>
   <si>
-    <t>MPNet</t>
+    <t>sentence-transformers/all-mpnet-base-v2</t>
   </si>
   <si>
-    <t>E5-small</t>
+    <t>intfloat/e5-small-v2</t>
   </si>
   <si>
-    <t>E5-base</t>
+    <t>intfloat/e5-base-v2</t>
   </si>
   <si>
     <t>google/flan-t5-base</t>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>t5-large</t>
+  </si>
+  <si>
+    <t>exact match</t>
   </si>
 </sst>
 </file>
@@ -118,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -154,12 +160,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,21 +471,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G126" sqref="G126"/>
+      <selection pane="bottomLeft" activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -495,25 +506,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -521,34 +532,34 @@
         <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2">
-        <v>0.56122448979591832</v>
+        <v>0.45918367346938782</v>
       </c>
       <c r="F2" s="2">
-        <v>0.67575315840621963</v>
+        <v>0.56870748299319718</v>
       </c>
       <c r="G2" s="2">
-        <v>0.48367340277236442</v>
+        <v>0.43261799340494211</v>
       </c>
       <c r="H2" s="2">
-        <v>0.67555879494655002</v>
+        <v>0.56644800777453841</v>
       </c>
       <c r="I2" s="2">
-        <v>0.34081632653061222</v>
+        <v>0.25782312925170059</v>
       </c>
       <c r="J2" s="2">
-        <v>0.67400388726919336</v>
+        <v>0.56717687074829914</v>
       </c>
       <c r="K2" s="2">
-        <v>0.67244897959183658</v>
+        <v>0.56554907677356647</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -556,13 +567,13 @@
         <v>100</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>0.4838709677419355</v>
@@ -574,16 +585,16 @@
         <v>0.2795666572712775</v>
       </c>
       <c r="H3" s="2">
-        <v>0.53341013824884786</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="I3" s="2">
         <v>0.26451612903225802</v>
       </c>
       <c r="J3" s="2">
-        <v>0.53168202764976968</v>
+        <v>0.52956989247311825</v>
       </c>
       <c r="K3" s="2">
-        <v>0.53341013824884786</v>
+        <v>0.53456221198156673</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -591,13 +602,13 @@
         <v>100</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>0.42105263157894729</v>
@@ -609,16 +620,16 @@
         <v>0.37606030930863932</v>
       </c>
       <c r="H4" s="2">
-        <v>0.57142857142857151</v>
+        <v>0.56842105263157894</v>
       </c>
       <c r="I4" s="2">
         <v>0.25263157894736837</v>
       </c>
       <c r="J4" s="2">
-        <v>0.57894736842105254</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="K4" s="2">
-        <v>0.56842105263157894</v>
+        <v>0.581453634085213</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -626,13 +637,13 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>0.41176470588235292</v>
@@ -644,51 +655,51 @@
         <v>0.52487651742809993</v>
       </c>
       <c r="H5" s="2">
-        <v>0.68739495798319328</v>
+        <v>0.68179271708683475</v>
       </c>
       <c r="I5" s="2">
-        <v>0.24929971988795521</v>
+        <v>0.24369747899159669</v>
       </c>
       <c r="J5" s="2">
+        <v>0.67955182072829146</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.68235294117647061</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.68067226890756327</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2">
-        <v>0.5445445445445446</v>
+        <v>0.44897959183673469</v>
       </c>
       <c r="F6" s="2">
-        <v>0.61421753343321972</v>
+        <v>0.54640427599611274</v>
       </c>
       <c r="G6" s="2">
-        <v>0.46649916374448908</v>
+        <v>0.42732858015819758</v>
       </c>
       <c r="H6" s="2">
-        <v>0.61715691078436163</v>
+        <v>0.54791059280855192</v>
       </c>
       <c r="I6" s="2">
-        <v>0.38802666302666311</v>
+        <v>0.26239067055393589</v>
       </c>
       <c r="J6" s="2">
-        <v>0.61597373917635334</v>
+        <v>0.54968415937803683</v>
       </c>
       <c r="K6" s="2">
-        <v>0.61724742198598392</v>
+        <v>0.54853417557499196</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -696,13 +707,13 @@
         <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>0.46774193548387089</v>
@@ -714,16 +725,16 @@
         <v>0.3409931248745019</v>
       </c>
       <c r="H7" s="2">
-        <v>0.50089605734767029</v>
+        <v>0.49910394265232971</v>
       </c>
       <c r="I7" s="2">
         <v>0.27188940092165897</v>
       </c>
       <c r="J7" s="2">
-        <v>0.50089605734767018</v>
+        <v>0.49551971326164879</v>
       </c>
       <c r="K7" s="2">
-        <v>0.50044802867383509</v>
+        <v>0.49731182795698919</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -731,13 +742,13 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>0.52631578947368418</v>
@@ -749,16 +760,16 @@
         <v>0.60108008712488492</v>
       </c>
       <c r="H8" s="2">
-        <v>0.68370927318295738</v>
+        <v>0.68195488721804509</v>
       </c>
       <c r="I8" s="2">
         <v>0.30526315789473679</v>
       </c>
       <c r="J8" s="2">
-        <v>0.68370927318295749</v>
+        <v>0.68370927318295727</v>
       </c>
       <c r="K8" s="2">
-        <v>0.68421052631578949</v>
+        <v>0.69097744360902258</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -766,13 +777,13 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>0.29411764705882348</v>
@@ -784,51 +795,51 @@
         <v>0.37613391693522369</v>
       </c>
       <c r="H9" s="2">
-        <v>0.58039215686274526</v>
+        <v>0.58431372549019611</v>
       </c>
       <c r="I9" s="2">
         <v>0.18487394957983189</v>
       </c>
       <c r="J9" s="2">
-        <v>0.58039215686274515</v>
+        <v>0.58431372549019611</v>
       </c>
       <c r="K9" s="2">
-        <v>0.58431372549019611</v>
+        <v>0.57647058823529418</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2">
-        <v>0.53953953953953959</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="F10" s="2">
-        <v>0.60696341742093385</v>
+        <v>0.61763474620617476</v>
       </c>
       <c r="G10" s="2">
-        <v>0.47161578208016453</v>
+        <v>0.47100337621418492</v>
       </c>
       <c r="H10" s="2">
-        <v>0.60840816951928045</v>
+        <v>0.61722546161321645</v>
       </c>
       <c r="I10" s="2">
-        <v>0.38176511939952812</v>
+        <v>0.30456754130223518</v>
       </c>
       <c r="J10" s="2">
-        <v>0.60714914881581517</v>
+        <v>0.6181162941367021</v>
       </c>
       <c r="K10" s="2">
-        <v>0.60873913373913358</v>
+        <v>0.61482831227729173</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -836,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2">
         <v>0.532258064516129</v>
@@ -854,16 +865,16 @@
         <v>0.40533442758975308</v>
       </c>
       <c r="H11" s="2">
-        <v>0.58328213005632357</v>
+        <v>0.58224526369687646</v>
       </c>
       <c r="I11" s="2">
-        <v>0.30829493087557602</v>
+        <v>0.31036866359447002</v>
       </c>
       <c r="J11" s="2">
-        <v>0.58387096774193536</v>
+        <v>0.57736815156169996</v>
       </c>
       <c r="K11" s="2">
-        <v>0.58337173579109058</v>
+        <v>0.58319252432155655</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -871,13 +882,13 @@
         <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
         <v>0.52631578947368418</v>
@@ -889,16 +900,16 @@
         <v>0.32583790890323733</v>
       </c>
       <c r="H12" s="2">
-        <v>0.7065162907268171</v>
+        <v>0.70175438596491235</v>
       </c>
       <c r="I12" s="2">
-        <v>0.31578947368421051</v>
+        <v>0.31754385964912279</v>
       </c>
       <c r="J12" s="2">
-        <v>0.70877192982456128</v>
+        <v>0.70125313283208024</v>
       </c>
       <c r="K12" s="2">
-        <v>0.70726817042606527</v>
+        <v>0.71428571428571441</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -906,13 +917,13 @@
         <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
         <v>0.41176470588235292</v>
@@ -924,16 +935,16 @@
         <v>0.5666485563083602</v>
       </c>
       <c r="H13" s="2">
-        <v>0.6599439775910364</v>
+        <v>0.66050420168067236</v>
       </c>
       <c r="I13" s="2">
         <v>0.26890756302521007</v>
       </c>
       <c r="J13" s="2">
-        <v>0.66386554621848737</v>
+        <v>0.65994397759103651</v>
       </c>
       <c r="K13" s="2">
-        <v>0.6599439775910364</v>
+        <v>0.65602240896358555</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -941,34 +952,34 @@
         <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2">
-        <v>0.53061224489795922</v>
+        <v>0.51020408163265307</v>
       </c>
       <c r="F14" s="2">
-        <v>0.66180758017492713</v>
+        <v>0.62210884353741491</v>
       </c>
       <c r="G14" s="2">
-        <v>0.4400446293852362</v>
+        <v>0.52939773476602325</v>
       </c>
       <c r="H14" s="2">
-        <v>0.66088435374149657</v>
+        <v>0.62229510851959813</v>
       </c>
       <c r="I14" s="2">
-        <v>0.3014577259475219</v>
+        <v>0.30636540330417877</v>
       </c>
       <c r="J14" s="2">
-        <v>0.65991253644314862</v>
+        <v>0.62604470359572395</v>
       </c>
       <c r="K14" s="2">
-        <v>0.65911078717201166</v>
+        <v>0.62008422416585662</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -976,13 +987,13 @@
         <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
         <v>0.54838709677419351</v>
@@ -994,16 +1005,16 @@
         <v>0.43451091795994989</v>
       </c>
       <c r="H15" s="2">
-        <v>0.59727342549923201</v>
+        <v>0.60177931387608807</v>
       </c>
       <c r="I15" s="2">
-        <v>0.32304147465437788</v>
+        <v>0.32580645161290323</v>
       </c>
       <c r="J15" s="2">
-        <v>0.60289298515104961</v>
+        <v>0.59605734767025087</v>
       </c>
       <c r="K15" s="2">
-        <v>0.60330261136712737</v>
+        <v>0.59997439836149513</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1011,13 +1022,13 @@
         <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>0.52631578947368418</v>
@@ -1029,16 +1040,16 @@
         <v>0.60575961978117387</v>
       </c>
       <c r="H16" s="2">
-        <v>0.67493734335839595</v>
+        <v>0.6719298245614036</v>
       </c>
       <c r="I16" s="2">
         <v>0.30526315789473679</v>
       </c>
       <c r="J16" s="2">
-        <v>0.66791979949874691</v>
+        <v>0.67493734335839595</v>
       </c>
       <c r="K16" s="2">
-        <v>0.67731829573934843</v>
+        <v>0.68320802005012538</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1046,13 +1057,13 @@
         <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
         <v>0.35294117647058831</v>
@@ -1064,51 +1075,51 @@
         <v>0.55442504887375776</v>
       </c>
       <c r="H17" s="2">
-        <v>0.6470588235294118</v>
+        <v>0.64425770308123242</v>
       </c>
       <c r="I17" s="2">
-        <v>0.23529411764705879</v>
+        <v>0.24929971988795521</v>
       </c>
       <c r="J17" s="2">
         <v>0.64537815126050424</v>
       </c>
       <c r="K17" s="2">
-        <v>0.64985994397759117</v>
+        <v>0.64425770308123254</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
-        <v>0.52752752752752752</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="F18" s="2">
-        <v>0.60912824917674169</v>
+        <v>0.54548104956268217</v>
       </c>
       <c r="G18" s="2">
-        <v>0.4477877754539541</v>
+        <v>0.4043005811135611</v>
       </c>
       <c r="H18" s="2">
-        <v>0.61205756483534246</v>
+        <v>0.54419339164237113</v>
       </c>
       <c r="I18" s="2">
-        <v>0.37880872285757072</v>
+        <v>0.25481049562682218</v>
       </c>
       <c r="J18" s="2">
-        <v>0.61113431718006872</v>
+        <v>0.54455782312925161</v>
       </c>
       <c r="K18" s="2">
-        <v>0.61048023041487098</v>
+        <v>0.54254130223517971</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1116,13 +1127,13 @@
         <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
         <v>0.4838709677419355</v>
@@ -1134,16 +1145,16 @@
         <v>0.30748966559161728</v>
       </c>
       <c r="H19" s="2">
-        <v>0.55994623655913978</v>
+        <v>0.5586021505376344</v>
       </c>
       <c r="I19" s="2">
         <v>0.27419354838709681</v>
       </c>
       <c r="J19" s="2">
-        <v>0.5580645161290323</v>
+        <v>0.55537634408602132</v>
       </c>
       <c r="K19" s="2">
-        <v>0.55994623655913967</v>
+        <v>0.5586021505376344</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1151,13 +1162,13 @@
         <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
         <v>0.47368421052631582</v>
@@ -1169,16 +1180,16 @@
         <v>0.33629743778163318</v>
       </c>
       <c r="H20" s="2">
-        <v>0.59649122807017552</v>
+        <v>0.59548872180451129</v>
       </c>
       <c r="I20" s="2">
         <v>0.30526315789473679</v>
       </c>
       <c r="J20" s="2">
-        <v>0.59598997493734329</v>
+        <v>0.5959899749373434</v>
       </c>
       <c r="K20" s="2">
-        <v>0.5959899749373434</v>
+        <v>0.59749373433583952</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1186,13 +1197,13 @@
         <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="2">
         <v>0.1764705882352941</v>
@@ -1204,16 +1215,16 @@
         <v>0.45953443686431039</v>
       </c>
       <c r="H21" s="2">
-        <v>0.44761904761904758</v>
+        <v>0.44705882352941168</v>
       </c>
       <c r="I21" s="2">
         <v>0.13949579831932771</v>
       </c>
       <c r="J21" s="2">
-        <v>0.45490196078431372</v>
+        <v>0.44761904761904758</v>
       </c>
       <c r="K21" s="2">
-        <v>0.45098039215686281</v>
+        <v>0.44817927170868338</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1221,34 +1232,34 @@
         <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2">
-        <v>0.51020408163265307</v>
+        <v>0.48979591836734693</v>
       </c>
       <c r="F22" s="2">
-        <v>0.61763474620617476</v>
+        <v>0.61608357628765786</v>
       </c>
       <c r="G22" s="2">
-        <v>0.47100337621418492</v>
+        <v>0.42941440942918818</v>
       </c>
       <c r="H22" s="2">
-        <v>0.61599449303530918</v>
+        <v>0.61783284742468392</v>
       </c>
       <c r="I22" s="2">
-        <v>0.30860058309037902</v>
+        <v>0.29387755102040819</v>
       </c>
       <c r="J22" s="2">
-        <v>0.61950923226433408</v>
+        <v>0.6149659863945578</v>
       </c>
       <c r="K22" s="2">
-        <v>0.62027858762552623</v>
+        <v>0.6131438289601554</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1256,13 +1267,13 @@
         <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="2">
         <v>0.532258064516129</v>
@@ -1274,16 +1285,16 @@
         <v>0.45467871966731471</v>
       </c>
       <c r="H23" s="2">
-        <v>0.59462365591397848</v>
+        <v>0.59784946236559133</v>
       </c>
       <c r="I23" s="2">
         <v>0.32258064516129031</v>
       </c>
       <c r="J23" s="2">
-        <v>0.59139784946236562</v>
+        <v>0.58655913978494623</v>
       </c>
       <c r="K23" s="2">
-        <v>0.58978494623655908</v>
+        <v>0.59193548387096784</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1291,13 +1302,13 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2">
         <v>0.52631578947368418</v>
@@ -1309,16 +1320,16 @@
         <v>0.62760827664902286</v>
       </c>
       <c r="H24" s="2">
-        <v>0.70125313283208013</v>
+        <v>0.70125313283208024</v>
       </c>
       <c r="I24" s="2">
         <v>0.35789473684210532</v>
       </c>
       <c r="J24" s="2">
-        <v>0.7015037593984963</v>
+        <v>0.7042606516290727</v>
       </c>
       <c r="K24" s="2">
-        <v>0.7065162907268171</v>
+        <v>0.71177944862155385</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1326,13 +1337,13 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
         <v>0.29411764705882348</v>
@@ -1344,16 +1355,16 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.60448179271708691</v>
+        <v>0.60168067226890765</v>
       </c>
       <c r="I25" s="2">
         <v>0.12773109243697481</v>
       </c>
       <c r="J25" s="2">
-        <v>0.61036414565826336</v>
+        <v>0.60588235294117654</v>
       </c>
       <c r="K25" s="2">
-        <v>0.60728291316526617</v>
+        <v>0.60392156862745094</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1361,34 +1372,34 @@
         <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2">
-        <v>0.51020408163265307</v>
+        <v>0.53061224489795922</v>
       </c>
       <c r="F26" s="2">
-        <v>0.62210884353741491</v>
+        <v>0.66180758017492713</v>
       </c>
       <c r="G26" s="2">
-        <v>0.52939773476602325</v>
+        <v>0.4400446293852362</v>
       </c>
       <c r="H26" s="2">
-        <v>0.62272432782636844</v>
+        <v>0.6595238095238094</v>
       </c>
       <c r="I26" s="2">
-        <v>0.31020408163265312</v>
+        <v>0.29431486880466468</v>
       </c>
       <c r="J26" s="2">
-        <v>0.62207644962746977</v>
+        <v>0.65947521865889203</v>
       </c>
       <c r="K26" s="2">
-        <v>0.62346128927761568</v>
+        <v>0.65932944606413979</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1396,13 +1407,13 @@
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="2">
         <v>0.58064516129032262</v>
@@ -1414,16 +1425,16 @@
         <v>0.33389088599410349</v>
       </c>
       <c r="H27" s="2">
-        <v>0.6513440860215054</v>
+        <v>0.65161290322580645</v>
       </c>
       <c r="I27" s="2">
         <v>0.30645161290322581</v>
       </c>
       <c r="J27" s="2">
-        <v>0.64973118279569886</v>
+        <v>0.65268817204301088</v>
       </c>
       <c r="K27" s="2">
-        <v>0.65322580645161288</v>
+        <v>0.65053763440860224</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1431,13 +1442,13 @@
         <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
         <v>0.52631578947368418</v>
@@ -1449,16 +1460,16 @@
         <v>0.47291469076786752</v>
       </c>
       <c r="H28" s="2">
-        <v>0.70125313283208013</v>
+        <v>0.70125313283208024</v>
       </c>
       <c r="I28" s="2">
         <v>0.35789473684210532</v>
       </c>
       <c r="J28" s="2">
-        <v>0.7015037593984963</v>
+        <v>0.7042606516290727</v>
       </c>
       <c r="K28" s="2">
-        <v>0.7065162907268171</v>
+        <v>0.71177944862155385</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1466,13 +1477,13 @@
         <v>100</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2">
         <v>0.35294117647058831</v>
@@ -1484,51 +1495,51 @@
         <v>0.51503821069151656</v>
       </c>
       <c r="H29" s="2">
-        <v>0.65518207282913177</v>
+        <v>0.65490196078431362</v>
       </c>
       <c r="I29" s="2">
-        <v>0.1865546218487395</v>
+        <v>0.1983193277310924</v>
       </c>
       <c r="J29" s="2">
-        <v>0.65210084033613447</v>
+        <v>0.65322128851540617</v>
       </c>
       <c r="K29" s="2">
-        <v>0.65154061624649873</v>
+        <v>0.6512605042016808</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>0.50150150150150152</v>
+        <v>0.56122448979591832</v>
       </c>
       <c r="F30" s="2">
-        <v>0.58104006340721315</v>
+        <v>0.67575315840621963</v>
       </c>
       <c r="G30" s="2">
-        <v>0.41501292669241308</v>
+        <v>0.48367340277236442</v>
       </c>
       <c r="H30" s="2">
-        <v>0.58596010902774154</v>
+        <v>0.67723517978620007</v>
       </c>
       <c r="I30" s="2">
-        <v>0.36075025469762317</v>
+        <v>0.33848396501457728</v>
       </c>
       <c r="J30" s="2">
-        <v>0.58419812026897322</v>
+        <v>0.67560738581146729</v>
       </c>
       <c r="K30" s="2">
-        <v>0.58510853555136944</v>
+        <v>0.67215743440233222</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1536,13 +1547,13 @@
         <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
         <v>0.62903225806451613</v>
@@ -1554,16 +1565,16 @@
         <v>0.41196918144773409</v>
       </c>
       <c r="H31" s="2">
-        <v>0.68225806451612903</v>
+        <v>0.68575268817204305</v>
       </c>
       <c r="I31" s="2">
         <v>0.37096774193548387</v>
       </c>
       <c r="J31" s="2">
-        <v>0.68225806451612914</v>
+        <v>0.68010752688172027</v>
       </c>
       <c r="K31" s="2">
-        <v>0.68118279569892459</v>
+        <v>0.68387096774193545</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1571,13 +1582,13 @@
         <v>100</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
         <v>0.52631578947368418</v>
@@ -1589,13 +1600,13 @@
         <v>0.44692214593091079</v>
       </c>
       <c r="H32" s="2">
-        <v>0.67368421052631577</v>
+        <v>0.67706766917293237</v>
       </c>
       <c r="I32" s="2">
         <v>0.35789473684210532</v>
       </c>
       <c r="J32" s="2">
-        <v>0.67368421052631577</v>
+        <v>0.67907268170426072</v>
       </c>
       <c r="K32" s="2">
         <v>0.6819548872180452</v>
@@ -1606,13 +1617,13 @@
         <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="2">
         <v>0.35294117647058831</v>
@@ -1624,16 +1635,16 @@
         <v>0.51503821069151656</v>
       </c>
       <c r="H33" s="2">
-        <v>0.65518207282913177</v>
+        <v>0.65490196078431362</v>
       </c>
       <c r="I33" s="2">
-        <v>0.1865546218487395</v>
+        <v>0.1983193277310924</v>
       </c>
       <c r="J33" s="2">
-        <v>0.65210084033613447</v>
+        <v>0.65322128851540617</v>
       </c>
       <c r="K33" s="2">
-        <v>0.65154061624649873</v>
+        <v>0.6512605042016808</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1644,31 +1655,31 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2">
-        <v>0.48979591836734693</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>0.61608357628765786</v>
+        <v>1.1837374764347401E-2</v>
       </c>
       <c r="G34" s="2">
-        <v>0.42941440942918818</v>
+        <v>7.1641945685503141E-3</v>
       </c>
       <c r="H34" s="2">
-        <v>0.61681243926141871</v>
+        <v>1.158970360401637E-2</v>
       </c>
       <c r="I34" s="2">
-        <v>0.29970845481049557</v>
+        <v>4.9463787177011784E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>0.61392128279883373</v>
+        <v>1.0902632489984999E-2</v>
       </c>
       <c r="K34" s="2">
-        <v>0.61379980563654024</v>
+        <v>1.077562940374039E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1676,13 +1687,13 @@
         <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1694,16 +1705,16 @@
         <v>1.1212210211612811E-2</v>
       </c>
       <c r="H35" s="2">
-        <v>9.0712049915085968E-3</v>
+        <v>9.1811414392059549E-3</v>
       </c>
       <c r="I35" s="2">
-        <v>6.1025912215758853E-3</v>
+        <v>6.2431462050154462E-3</v>
       </c>
       <c r="J35" s="2">
-        <v>8.997006577651739E-3</v>
+        <v>9.4302650754263667E-3</v>
       </c>
       <c r="K35" s="2">
-        <v>9.0833686659113604E-3</v>
+        <v>9.1811414392059549E-3</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1711,13 +1722,13 @@
         <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -1746,13 +1757,13 @@
         <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1764,51 +1775,51 @@
         <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>2.7468016446344619E-2</v>
+        <v>2.68245777843301E-2</v>
       </c>
       <c r="I37" s="2">
         <v>5.6725031149583594E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>2.4911048679417399E-2</v>
+        <v>2.517616881197747E-2</v>
       </c>
       <c r="K37" s="2">
-        <v>2.5482084111133951E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.42798102685601E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2">
-        <v>0.48004800480047999</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>0.5404109577625239</v>
+        <v>8.0048832819198702E-3</v>
       </c>
       <c r="G38" s="2">
-        <v>0.39582650346400222</v>
+        <v>5.8791326197585861E-3</v>
       </c>
       <c r="H38" s="2">
-        <v>0.54061449729506816</v>
+        <v>8.121756974535977E-3</v>
       </c>
       <c r="I38" s="2">
-        <v>0.3128528896249595</v>
+        <v>3.1310480629893871E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>0.53983631336241344</v>
+        <v>8.4329969584757691E-3</v>
       </c>
       <c r="K38" s="2">
-        <v>0.53977216710226772</v>
+        <v>8.1372507360061141E-3</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1816,13 +1827,13 @@
         <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1834,16 +1845,16 @@
         <v>6.4152057919064148E-3</v>
       </c>
       <c r="H39" s="2">
-        <v>7.8417584042414622E-3</v>
+        <v>7.7241307080016756E-3</v>
       </c>
       <c r="I39" s="2">
-        <v>2.0590253946465341E-3</v>
+        <v>2.9325513196480938E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>7.5911449623837814E-3</v>
+        <v>7.6855962326279493E-3</v>
       </c>
       <c r="K39" s="2">
-        <v>7.3085539201017636E-3</v>
+        <v>7.8507429364707768E-3</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1851,13 +1862,13 @@
         <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -1869,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>1.274205190973857E-2</v>
+        <v>1.294738012369695E-2</v>
       </c>
       <c r="I40" s="2">
         <v>3.6934441366574329E-3</v>
@@ -1886,13 +1897,13 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -1916,39 +1927,39 @@
         <v>4.9710024855012429E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2">
-        <v>0.47764776477647758</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>0.53886118003196704</v>
+        <v>1.119683553720619E-2</v>
       </c>
       <c r="G42" s="2">
-        <v>0.39775478140539239</v>
+        <v>5.0259789963944057E-3</v>
       </c>
       <c r="H42" s="2">
-        <v>0.53875079849030616</v>
+        <v>1.135381343916619E-2</v>
       </c>
       <c r="I42" s="2">
-        <v>0.30865502338152467</v>
+        <v>4.58182385683831E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.53830366494814097</v>
+        <v>1.133016755662219E-2</v>
       </c>
       <c r="K42" s="2">
-        <v>0.53814564994946856</v>
+        <v>1.121057166824896E-2</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1956,13 +1967,13 @@
         <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -1974,16 +1985,16 @@
         <v>7.7459621176536606E-3</v>
       </c>
       <c r="H43" s="2">
-        <v>1.15975857662884E-2</v>
+        <v>1.1453451641451151E-2</v>
       </c>
       <c r="I43" s="2">
-        <v>5.7835341845893663E-3</v>
+        <v>5.7966863797419797E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>1.173303234672236E-2</v>
+        <v>1.1556992177307719E-2</v>
       </c>
       <c r="K43" s="2">
-        <v>1.1298938473976779E-2</v>
+        <v>1.143223226539306E-2</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1991,13 +2002,13 @@
         <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -2026,13 +2037,13 @@
         <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -2044,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>1.2212885154061621E-2</v>
+        <v>1.170868347338936E-2</v>
       </c>
       <c r="I45" s="2">
         <v>5.1150895140664966E-3</v>
@@ -2061,34 +2072,34 @@
         <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
       <c r="E46" s="2">
-        <v>0.45918367346938782</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>0.56870748299319718</v>
+        <v>3.289355688379814E-3</v>
       </c>
       <c r="G46" s="2">
-        <v>0.43261799340494211</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0.56793002915451885</v>
+        <v>3.6162949319701381E-3</v>
       </c>
       <c r="I46" s="2">
-        <v>0.26034985422740531</v>
+        <v>1.093037637888136E-3</v>
       </c>
       <c r="J46" s="2">
-        <v>0.5662050534499512</v>
+        <v>3.6390395921442379E-3</v>
       </c>
       <c r="K46" s="2">
-        <v>0.56749271137026236</v>
+        <v>3.6561643595946678E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2096,13 +2107,13 @@
         <v>100</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -2131,13 +2142,13 @@
         <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2">
         <v>0</v>
@@ -2158,7 +2169,7 @@
         <v>8.5278663106210691E-3</v>
       </c>
       <c r="K48" s="2">
-        <v>8.5278663106210691E-3</v>
+        <v>8.3125161512619498E-3</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2166,13 +2177,13 @@
         <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2">
         <v>0</v>
@@ -2196,39 +2207,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E50" s="2">
-        <v>0.45474547454745468</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="F50" s="2">
-        <v>0.52618337049816544</v>
+        <v>0.19765794251406041</v>
       </c>
       <c r="G50" s="2">
-        <v>0.33073231373449752</v>
+        <v>1.293326436953666E-2</v>
       </c>
       <c r="H50" s="2">
-        <v>0.5258221858360157</v>
+        <v>0.19816959713387419</v>
       </c>
       <c r="I50" s="2">
-        <v>0.30200018730139339</v>
+        <v>8.8084637037839003E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>0.52578215024192665</v>
+        <v>0.19644176845910641</v>
       </c>
       <c r="K50" s="2">
-        <v>0.52556144057530152</v>
+        <v>0.193378990376152</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2236,13 +2247,13 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="2">
         <v>0.1129032258064516</v>
@@ -2254,16 +2265,16 @@
         <v>9.8928068442623585E-3</v>
       </c>
       <c r="H51" s="2">
-        <v>0.164881984317131</v>
+        <v>0.16660733729359209</v>
       </c>
       <c r="I51" s="2">
-        <v>7.2430142160398003E-2</v>
+        <v>7.1703602293146235E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>0.16878682952409119</v>
+        <v>0.16178393850889181</v>
       </c>
       <c r="K51" s="2">
-        <v>0.17044792640620179</v>
+        <v>0.16789399993900261</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2271,13 +2282,13 @@
         <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2">
         <v>0.10526315789473679</v>
@@ -2289,16 +2300,16 @@
         <v>2.6996339687875608E-2</v>
       </c>
       <c r="H52" s="2">
-        <v>0.21219715956558061</v>
+        <v>0.2124756335282651</v>
       </c>
       <c r="I52" s="2">
-        <v>0.1368421052631579</v>
+        <v>0.13984962406015039</v>
       </c>
       <c r="J52" s="2">
-        <v>0.21059593428014481</v>
+        <v>0.20865197180986661</v>
       </c>
       <c r="K52" s="2">
-        <v>0.2030824925561768</v>
+        <v>0.21038707880813151</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2306,13 +2317,13 @@
         <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53" s="2">
         <v>0.1176470588235294</v>
@@ -2324,51 +2335,51 @@
         <v>0</v>
       </c>
       <c r="H53" s="2">
-        <v>0.27295326184550678</v>
+        <v>0.27726861373920197</v>
       </c>
       <c r="I53" s="2">
         <v>9.2436974789915971E-2</v>
       </c>
       <c r="J53" s="2">
-        <v>0.27591821654647303</v>
+        <v>0.27081223893275541</v>
       </c>
       <c r="K53" s="2">
-        <v>0.27149645843597359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.27211590694789373</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E54" s="2">
-        <v>0.45434543454345427</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="F54" s="2">
-        <v>0.52536647319603458</v>
+        <v>0.19899950545974471</v>
       </c>
       <c r="G54" s="2">
-        <v>0.33611374801305938</v>
+        <v>1.5797316800672829E-2</v>
       </c>
       <c r="H54" s="2">
-        <v>0.52585628037623067</v>
+        <v>0.20192823073024641</v>
       </c>
       <c r="I54" s="2">
-        <v>0.30171910567029042</v>
+        <v>9.4789972323399474E-2</v>
       </c>
       <c r="J54" s="2">
-        <v>0.52512752793619466</v>
+        <v>0.20265346430631331</v>
       </c>
       <c r="K54" s="2">
-        <v>0.5248888526769826</v>
+        <v>0.19925695504801319</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2376,13 +2387,13 @@
         <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2">
         <v>0.16129032258064521</v>
@@ -2394,16 +2405,16 @@
         <v>1.2004508560074911E-2</v>
       </c>
       <c r="H55" s="2">
-        <v>0.20886320522499141</v>
+        <v>0.2061170044207016</v>
       </c>
       <c r="I55" s="2">
-        <v>0.1216812942341307</v>
+        <v>0.1223859844271413</v>
       </c>
       <c r="J55" s="2">
-        <v>0.20986990436399761</v>
+        <v>0.2039689969925019</v>
       </c>
       <c r="K55" s="2">
-        <v>0.21247278525772131</v>
+        <v>0.21126928652407631</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2411,13 +2422,13 @@
         <v>100</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2">
         <v>5.2631578947368418E-2</v>
@@ -2429,16 +2440,16 @@
         <v>0</v>
       </c>
       <c r="H56" s="2">
-        <v>0.14987468671679199</v>
+        <v>0.15037593984962411</v>
       </c>
       <c r="I56" s="2">
-        <v>4.2105263157894743E-2</v>
+        <v>5.0202429149797577E-2</v>
       </c>
       <c r="J56" s="2">
-        <v>0.15093502988239829</v>
+        <v>0.14919992288413339</v>
       </c>
       <c r="K56" s="2">
-        <v>0.14454405243878929</v>
+        <v>0.14878542510121459</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2446,13 +2457,13 @@
         <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2">
         <v>5.8823529411764712E-2</v>
@@ -2464,16 +2475,16 @@
         <v>2.5810727031047361E-2</v>
       </c>
       <c r="H57" s="2">
-        <v>0.2258343122521502</v>
+        <v>0.22403888151129281</v>
       </c>
       <c r="I57" s="2">
         <v>4.6685340802987862E-2</v>
       </c>
       <c r="J57" s="2">
-        <v>0.22841789627509301</v>
+        <v>0.223369832003288</v>
       </c>
       <c r="K57" s="2">
-        <v>0.2292967932884438</v>
+        <v>0.22308757275812649</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2481,34 +2492,34 @@
         <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E58" s="2">
-        <v>0.44897959183673469</v>
+        <v>0.1326530612244898</v>
       </c>
       <c r="F58" s="2">
-        <v>0.54640427599611274</v>
+        <v>0.22885475701136751</v>
       </c>
       <c r="G58" s="2">
-        <v>0.42732858015819758</v>
+        <v>2.447696275103603E-2</v>
       </c>
       <c r="H58" s="2">
-        <v>0.54933592484612881</v>
+        <v>0.2303489840623251</v>
       </c>
       <c r="I58" s="2">
-        <v>0.26705539358600577</v>
+        <v>9.4477168156639951E-2</v>
       </c>
       <c r="J58" s="2">
-        <v>0.55108519598315509</v>
+        <v>0.22760247663605121</v>
       </c>
       <c r="K58" s="2">
-        <v>0.54881762228701003</v>
+        <v>0.22838223898151519</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2516,13 +2527,13 @@
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E59" s="2">
         <v>0.1290322580645161</v>
@@ -2534,16 +2545,16 @@
         <v>1.6867470638243499E-2</v>
       </c>
       <c r="H59" s="2">
-        <v>0.20619862863251581</v>
+        <v>0.20632405631415429</v>
       </c>
       <c r="I59" s="2">
-        <v>6.8284985623695296E-2</v>
+        <v>6.7196915987238565E-2</v>
       </c>
       <c r="J59" s="2">
-        <v>0.20716812908654</v>
+        <v>0.2049930437307371</v>
       </c>
       <c r="K59" s="2">
-        <v>0.20971713714002721</v>
+        <v>0.20724554510227611</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2551,13 +2562,13 @@
         <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2">
         <v>0.15789473684210531</v>
@@ -2569,16 +2580,16 @@
         <v>5.4744192854341449E-2</v>
       </c>
       <c r="H60" s="2">
-        <v>0.18768851954447521</v>
+        <v>0.1866152796178088</v>
       </c>
       <c r="I60" s="2">
-        <v>0.1176470588235294</v>
+        <v>0.1152882205513785</v>
       </c>
       <c r="J60" s="2">
-        <v>0.19018293254111629</v>
+        <v>0.18651892890120039</v>
       </c>
       <c r="K60" s="2">
-        <v>0.18535469107551489</v>
+        <v>0.1898751455297282</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2586,13 +2597,13 @@
         <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2">
         <v>0.1176470588235294</v>
@@ -2604,16 +2615,16 @@
         <v>2.236339582496439E-2</v>
       </c>
       <c r="H61" s="2">
-        <v>0.34299600541971181</v>
+        <v>0.33764310524151309</v>
       </c>
       <c r="I61" s="2">
-        <v>0.1470588235294118</v>
+        <v>0.15126050420168069</v>
       </c>
       <c r="J61" s="2">
-        <v>0.34069821501931191</v>
+        <v>0.33612865330689312</v>
       </c>
       <c r="K61" s="2">
-        <v>0.34090600984895542</v>
+        <v>0.34035700752197878</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2621,13 +2632,13 @@
         <v>1000</v>
       </c>
       <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
         <v>11</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
       </c>
       <c r="E62" s="2">
         <v>0.43343343343343338</v>
@@ -2639,16 +2650,16 @@
         <v>0.37299954819921649</v>
       </c>
       <c r="H62" s="2">
-        <v>0.4950685194837241</v>
+        <v>0.49422623472331079</v>
       </c>
       <c r="I62" s="2">
-        <v>0.29081461777540207</v>
+        <v>0.29092905612513459</v>
       </c>
       <c r="J62" s="2">
-        <v>0.49361830165923748</v>
+        <v>0.49417364219995807</v>
       </c>
       <c r="K62" s="2">
-        <v>0.49414536797577729</v>
+        <v>0.49313940505460979</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2656,13 +2667,13 @@
         <v>1000</v>
       </c>
       <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
         <v>11</v>
       </c>
-      <c r="C63" t="s">
-        <v>12</v>
-      </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E63" s="2">
         <v>0.41719745222929938</v>
@@ -2674,16 +2685,16 @@
         <v>0.36088691106249882</v>
       </c>
       <c r="H63" s="2">
-        <v>0.46586566299942112</v>
+        <v>0.46491898052407621</v>
       </c>
       <c r="I63" s="2">
-        <v>0.29694608735213829</v>
+        <v>0.29705414012738851</v>
       </c>
       <c r="J63" s="2">
-        <v>0.46368358287148093</v>
+        <v>0.46408431448240361</v>
       </c>
       <c r="K63" s="2">
-        <v>0.46524204740765263</v>
+        <v>0.4639471948787236</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2691,13 +2702,13 @@
         <v>1000</v>
       </c>
       <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" t="s">
-        <v>12</v>
-      </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2">
         <v>0.51515151515151514</v>
@@ -2709,16 +2720,16 @@
         <v>0.3240783798054207</v>
       </c>
       <c r="H64" s="2">
-        <v>0.59633553580922016</v>
+        <v>0.59679248626617054</v>
       </c>
       <c r="I64" s="2">
-        <v>0.31305951673598731</v>
+        <v>0.31302980788274898</v>
       </c>
       <c r="J64" s="2">
-        <v>0.59718630540998974</v>
+        <v>0.59932992202729052</v>
       </c>
       <c r="K64" s="2">
-        <v>0.59815147084883935</v>
+        <v>0.5994860889597734</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2726,13 +2737,13 @@
         <v>1000</v>
       </c>
       <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2">
         <v>0.39884393063583817</v>
@@ -2744,51 +2755,51 @@
         <v>0.4196022140736852</v>
       </c>
       <c r="H65" s="2">
-        <v>0.48012506119442527</v>
+        <v>0.48561096899247191</v>
       </c>
       <c r="I65" s="2">
-        <v>0.2434727122588394</v>
+        <v>0.2407201661536921</v>
       </c>
       <c r="J65" s="2">
-        <v>0.48061373437095978</v>
+        <v>0.48563036193094</v>
       </c>
       <c r="K65" s="2">
-        <v>0.48439838902266652</v>
+        <v>0.48309843656664481</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
       <c r="E66" s="2">
-        <v>0.42857142857142849</v>
+        <v>0.42242242242242239</v>
       </c>
       <c r="F66" s="2">
-        <v>0.54548104956268217</v>
+        <v>0.4861919017474573</v>
       </c>
       <c r="G66" s="2">
-        <v>0.4043005811135611</v>
+        <v>0.39983658138216971</v>
       </c>
       <c r="H66" s="2">
-        <v>0.54501943634596683</v>
+        <v>0.48880648497506751</v>
       </c>
       <c r="I66" s="2">
-        <v>0.25714285714285717</v>
+        <v>0.29873665151442941</v>
       </c>
       <c r="J66" s="2">
-        <v>0.54691448007774524</v>
+        <v>0.48858327718480982</v>
       </c>
       <c r="K66" s="2">
-        <v>0.54572400388726905</v>
+        <v>0.48883963730707031</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2796,13 +2807,13 @@
         <v>1000</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E67" s="2">
         <v>0.40286624203821658</v>
@@ -2814,16 +2825,16 @@
         <v>0.36905402246768459</v>
       </c>
       <c r="H67" s="2">
-        <v>0.45572754386448661</v>
+        <v>0.45480378167480101</v>
       </c>
       <c r="I67" s="2">
-        <v>0.30036396724294812</v>
+        <v>0.29929860479223552</v>
       </c>
       <c r="J67" s="2">
-        <v>0.45494084383415601</v>
+        <v>0.45426403479747429</v>
       </c>
       <c r="K67" s="2">
-        <v>0.45552350162222782</v>
+        <v>0.4550557899284014</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2831,13 +2842,13 @@
         <v>1000</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2">
         <v>0.52020202020202022</v>
@@ -2849,16 +2860,16 @@
         <v>0.40871028849156871</v>
       </c>
       <c r="H68" s="2">
-        <v>0.60860898360898374</v>
+        <v>0.60598513874375948</v>
       </c>
       <c r="I68" s="2">
-        <v>0.33818615447403327</v>
+        <v>0.34175339251096831</v>
       </c>
       <c r="J68" s="2">
-        <v>0.6041143403212369</v>
+        <v>0.60639347880727201</v>
       </c>
       <c r="K68" s="2">
-        <v>0.60610956731646404</v>
+        <v>0.60619268981337959</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2866,13 +2877,13 @@
         <v>1000</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2">
         <v>0.38150289017341038</v>
@@ -2884,16 +2895,16 @@
         <v>0.42303604832174557</v>
       </c>
       <c r="H69" s="2">
-        <v>0.47529819249472433</v>
+        <v>0.47949053194717928</v>
       </c>
       <c r="I69" s="2">
-        <v>0.248747591522158</v>
+        <v>0.2481620498961539</v>
       </c>
       <c r="J69" s="2">
-        <v>0.47690719684939342</v>
+        <v>0.47891373238194052</v>
       </c>
       <c r="K69" s="2">
-        <v>0.48202128635654651</v>
+        <v>0.48049644639240008</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2901,34 +2912,34 @@
         <v>1000</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2">
-        <v>0.42242242242242239</v>
+        <v>0.53953953953953959</v>
       </c>
       <c r="F70" s="2">
-        <v>0.4861919017474573</v>
+        <v>0.60696341742093385</v>
       </c>
       <c r="G70" s="2">
-        <v>0.39983658138216971</v>
+        <v>0.47161578208016453</v>
       </c>
       <c r="H70" s="2">
-        <v>0.48995270748144332</v>
+        <v>0.60868814202147536</v>
       </c>
       <c r="I70" s="2">
-        <v>0.29949801894246331</v>
+        <v>0.3809598699383645</v>
       </c>
       <c r="J70" s="2">
-        <v>0.48885911912731839</v>
+        <v>0.60866523922079452</v>
       </c>
       <c r="K70" s="2">
-        <v>0.4897958564625231</v>
+        <v>0.60786328286328262</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2936,13 +2947,13 @@
         <v>1000</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E71" s="2">
         <v>0.55095541401273884</v>
@@ -2954,16 +2965,16 @@
         <v>0.46611869230247538</v>
       </c>
       <c r="H71" s="2">
-        <v>0.60255150458175943</v>
+        <v>0.60370688228968483</v>
       </c>
       <c r="I71" s="2">
-        <v>0.39462787529229898</v>
+        <v>0.39465667713561697</v>
       </c>
       <c r="J71" s="2">
-        <v>0.60141192406319788</v>
+        <v>0.60350358682365068</v>
       </c>
       <c r="K71" s="2">
-        <v>0.60348405575316399</v>
+        <v>0.60213330989604874</v>
       </c>
     </row>
     <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2971,13 +2982,13 @@
         <v>1000</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2">
         <v>0.60101010101010099</v>
@@ -2989,16 +3000,16 @@
         <v>0.49088505215103612</v>
       </c>
       <c r="H72" s="2">
-        <v>0.69891250724584075</v>
+        <v>0.69815215648548978</v>
       </c>
       <c r="I72" s="2">
-        <v>0.41306954829682108</v>
+        <v>0.41772432113341212</v>
       </c>
       <c r="J72" s="2">
-        <v>0.6965959965959968</v>
+        <v>0.69650102983436324</v>
       </c>
       <c r="K72" s="2">
-        <v>0.697201255534589</v>
+        <v>0.69707422207422221</v>
       </c>
     </row>
     <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3006,13 +3017,13 @@
         <v>1000</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2">
         <v>0.4277456647398844</v>
@@ -3024,16 +3035,16 @@
         <v>0.40347566340024033</v>
       </c>
       <c r="H73" s="2">
-        <v>0.52553576802131718</v>
+        <v>0.52540912844381049</v>
       </c>
       <c r="I73" s="2">
-        <v>0.29507294247178639</v>
+        <v>0.29342141480869799</v>
       </c>
       <c r="J73" s="2">
-        <v>0.52272905322038277</v>
+        <v>0.52518133760908325</v>
       </c>
       <c r="K73" s="2">
-        <v>0.52773092354017204</v>
+        <v>0.52634582822444098</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3041,34 +3052,34 @@
         <v>1000</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E74" s="2">
-        <v>0.42142142142142142</v>
+        <v>0.5445445445445446</v>
       </c>
       <c r="F74" s="2">
-        <v>0.50201866005787577</v>
+        <v>0.61421753343321972</v>
       </c>
       <c r="G74" s="2">
-        <v>0.3305736610947459</v>
+        <v>0.46649916374448908</v>
       </c>
       <c r="H74" s="2">
-        <v>0.50618106358847104</v>
+        <v>0.61639689744264892</v>
       </c>
       <c r="I74" s="2">
-        <v>0.29348149014815678</v>
+        <v>0.38852716352716371</v>
       </c>
       <c r="J74" s="2">
-        <v>0.50364289470292012</v>
+        <v>0.61650471797530615</v>
       </c>
       <c r="K74" s="2">
-        <v>0.50496495652945195</v>
+        <v>0.61600600636548353</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3076,13 +3087,13 @@
         <v>1000</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="2">
         <v>0.54299363057324845</v>
@@ -3094,16 +3105,16 @@
         <v>0.47311312562766927</v>
       </c>
       <c r="H75" s="2">
-        <v>0.59867878052591428</v>
+        <v>0.59804574406485234</v>
       </c>
       <c r="I75" s="2">
-        <v>0.39138989990900819</v>
+        <v>0.3922164088565363</v>
       </c>
       <c r="J75" s="2">
-        <v>0.59833951434269905</v>
+        <v>0.59744097021167097</v>
       </c>
       <c r="K75" s="2">
-        <v>0.59861685554360733</v>
+        <v>0.59837105127710233</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3111,13 +3122,13 @@
         <v>1000</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2">
         <v>0.63131313131313127</v>
@@ -3129,16 +3140,16 @@
         <v>0.45070211895623008</v>
       </c>
       <c r="H76" s="2">
-        <v>0.72761928769058914</v>
+        <v>0.72780166456637052</v>
       </c>
       <c r="I76" s="2">
-        <v>0.43849643622370887</v>
+        <v>0.44346276619003899</v>
       </c>
       <c r="J76" s="2">
-        <v>0.72702799445223698</v>
+        <v>0.72623970239834779</v>
       </c>
       <c r="K76" s="2">
-        <v>0.72824592882525152</v>
+        <v>0.72835804355412215</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3146,13 +3157,13 @@
         <v>1000</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E77" s="2">
         <v>0.45086705202312138</v>
@@ -3164,16 +3175,16 @@
         <v>0.45669672452122628</v>
       </c>
       <c r="H77" s="2">
-        <v>0.55540164716465301</v>
+        <v>0.55893143465397821</v>
       </c>
       <c r="I77" s="2">
-        <v>0.31414808698045688</v>
+        <v>0.31268923754472883</v>
       </c>
       <c r="J77" s="2">
-        <v>0.55505634378466739</v>
+        <v>0.55814411984932222</v>
       </c>
       <c r="K77" s="2">
-        <v>0.55861449083992443</v>
+        <v>0.55641633575159577</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3181,13 +3192,13 @@
         <v>1000</v>
       </c>
       <c r="B78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
         <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
       </c>
       <c r="E78" s="2">
         <v>0.4014014014014014</v>
@@ -3199,16 +3210,16 @@
         <v>0.33839994664798551</v>
       </c>
       <c r="H78" s="2">
-        <v>0.48684668638372353</v>
+        <v>0.48583244092503353</v>
       </c>
       <c r="I78" s="2">
-        <v>0.27655045339255868</v>
+        <v>0.27614084807067257</v>
       </c>
       <c r="J78" s="2">
-        <v>0.48525339266080042</v>
+        <v>0.48584631501298192</v>
       </c>
       <c r="K78" s="2">
-        <v>0.48565470093247881</v>
+        <v>0.48456152576522959</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3216,13 +3227,13 @@
         <v>1000</v>
       </c>
       <c r="B79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E79" s="2">
         <v>0.3996815286624204</v>
@@ -3234,16 +3245,16 @@
         <v>0.33543259405522402</v>
       </c>
       <c r="H79" s="2">
-        <v>0.46642023051258719</v>
+        <v>0.46705590941259739</v>
       </c>
       <c r="I79" s="2">
-        <v>0.28025367958111852</v>
+        <v>0.2800500454959054</v>
       </c>
       <c r="J79" s="2">
-        <v>0.46501680820948371</v>
+        <v>0.4663380851278941</v>
       </c>
       <c r="K79" s="2">
-        <v>0.46519247295521182</v>
+        <v>0.46523860074815487</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3251,13 +3262,13 @@
         <v>1000</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E80" s="2">
         <v>0.51010101010101006</v>
@@ -3269,16 +3280,16 @@
         <v>0.30303581611363473</v>
       </c>
       <c r="H80" s="2">
-        <v>0.61860603388381175</v>
+        <v>0.61892906476239817</v>
       </c>
       <c r="I80" s="2">
-        <v>0.31549652367834191</v>
+        <v>0.31614631160085699</v>
       </c>
       <c r="J80" s="2">
-        <v>0.6147937710437712</v>
+        <v>0.61629366004366015</v>
       </c>
       <c r="K80" s="2">
-        <v>0.61742187853298969</v>
+        <v>0.618670809643032</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3286,13 +3297,13 @@
         <v>1000</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E81" s="2">
         <v>0.2832369942196532</v>
@@ -3304,51 +3315,51 @@
         <v>0.35620179231607951</v>
       </c>
       <c r="H81" s="2">
-        <v>0.40647839636278937</v>
+        <v>0.40882869538938899</v>
       </c>
       <c r="I81" s="2">
-        <v>0.21668293171183339</v>
+        <v>0.2165765833395891</v>
       </c>
       <c r="J81" s="2">
-        <v>0.40396758026815832</v>
+        <v>0.40694862298908541</v>
       </c>
       <c r="K81" s="2">
-        <v>0.40829499658979412</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.40747651513547462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
       <c r="E82" s="2">
-        <v>0.37253725372537261</v>
+        <v>0.42142142142142142</v>
       </c>
       <c r="F82" s="2">
-        <v>0.42740356681377378</v>
+        <v>0.50201866005787577</v>
       </c>
       <c r="G82" s="2">
-        <v>0.30709554733086852</v>
+        <v>0.3305736610947459</v>
       </c>
       <c r="H82" s="2">
-        <v>0.4280255126249311</v>
+        <v>0.50437733854081235</v>
       </c>
       <c r="I82" s="2">
-        <v>0.23349344291717961</v>
+        <v>0.29260085482307718</v>
       </c>
       <c r="J82" s="2">
-        <v>0.42748908659243312</v>
+        <v>0.5045260085489971</v>
       </c>
       <c r="K82" s="2">
-        <v>0.42724592508903869</v>
+        <v>0.50432667377111817</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3356,13 +3367,13 @@
         <v>1000</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E83" s="2">
         <v>0.41719745222929938</v>
@@ -3374,16 +3385,16 @@
         <v>0.30071597901993968</v>
       </c>
       <c r="H83" s="2">
-        <v>0.4877640332656259</v>
+        <v>0.4855758448911317</v>
       </c>
       <c r="I83" s="2">
-        <v>0.30044333232231318</v>
+        <v>0.29904180568193323</v>
       </c>
       <c r="J83" s="2">
-        <v>0.48575679451475662</v>
+        <v>0.48570331384821858</v>
       </c>
       <c r="K83" s="2">
-        <v>0.48741333566174322</v>
+        <v>0.48417592669185039</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3391,13 +3402,13 @@
         <v>1000</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E84" s="2">
         <v>0.48989898989898989</v>
@@ -3409,16 +3420,16 @@
         <v>0.31692168481608268</v>
       </c>
       <c r="H84" s="2">
-        <v>0.59255458249711124</v>
+        <v>0.59233717538315256</v>
       </c>
       <c r="I84" s="2">
-        <v>0.31190822365064791</v>
+        <v>0.31573691460055098</v>
       </c>
       <c r="J84" s="2">
-        <v>0.58863543863543866</v>
+        <v>0.59085297418630756</v>
       </c>
       <c r="K84" s="2">
-        <v>0.59059236846593177</v>
+        <v>0.59024604599317254</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3426,13 +3437,13 @@
         <v>1000</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E85" s="2">
         <v>0.3583815028901734</v>
@@ -3444,51 +3455,51 @@
         <v>0.38534563581075082</v>
       </c>
       <c r="H85" s="2">
-        <v>0.47206260342098488</v>
+        <v>0.47491179340890322</v>
       </c>
       <c r="I85" s="2">
-        <v>0.24418086730225461</v>
+        <v>0.24419900908340211</v>
       </c>
       <c r="J85" s="2">
-        <v>0.47157267908713002</v>
+        <v>0.47385793397354092</v>
       </c>
       <c r="K85" s="2">
-        <v>0.47460861232537521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.47510187307875168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
         <v>12</v>
       </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
       <c r="E86" s="2">
-        <v>0.35863586358635863</v>
+        <v>0.50150150150150152</v>
       </c>
       <c r="F86" s="2">
-        <v>0.42314546400860392</v>
+        <v>0.58104006340721315</v>
       </c>
       <c r="G86" s="2">
-        <v>0.26092695314383701</v>
+        <v>0.41501292669241308</v>
       </c>
       <c r="H86" s="2">
-        <v>0.42386329330995448</v>
+        <v>0.58540085987751023</v>
       </c>
       <c r="I86" s="2">
-        <v>0.22798197368433451</v>
+        <v>0.35958458572493668</v>
       </c>
       <c r="J86" s="2">
-        <v>0.42323531396538672</v>
+        <v>0.58519057492487436</v>
       </c>
       <c r="K86" s="2">
-        <v>0.42336882439716839</v>
+        <v>0.58422192351338875</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3496,13 +3507,13 @@
         <v>1000</v>
       </c>
       <c r="B87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E87" s="2">
         <v>0.51433121019108285</v>
@@ -3514,16 +3525,16 @@
         <v>0.41841327982109588</v>
       </c>
       <c r="H87" s="2">
-        <v>0.58250893067772069</v>
+        <v>0.58209672934991419</v>
       </c>
       <c r="I87" s="2">
-        <v>0.37274340309372173</v>
+        <v>0.37128563845920542</v>
       </c>
       <c r="J87" s="2">
-        <v>0.58075775957941589</v>
+        <v>0.5825042968355072</v>
       </c>
       <c r="K87" s="2">
-        <v>0.5817915276514003</v>
+        <v>0.58218456172277833</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3531,13 +3542,13 @@
         <v>1000</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E88" s="2">
         <v>0.5505050505050505</v>
@@ -3549,16 +3560,16 @@
         <v>0.36670129398152818</v>
       </c>
       <c r="H88" s="2">
-        <v>0.64570219099204618</v>
+        <v>0.64700675062993906</v>
       </c>
       <c r="I88" s="2">
-        <v>0.38259370878988108</v>
+        <v>0.38528969922510592</v>
       </c>
       <c r="J88" s="2">
-        <v>0.64383548550215242</v>
+        <v>0.64391586674195367</v>
       </c>
       <c r="K88" s="2">
-        <v>0.64419598115250309</v>
+        <v>0.64608169608169619</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3566,13 +3577,13 @@
         <v>1000</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E89" s="2">
         <v>0.39884393063583817</v>
@@ -3584,51 +3595,51 @@
         <v>0.41723455673855919</v>
       </c>
       <c r="H89" s="2">
-        <v>0.52681618317456469</v>
+        <v>0.52813788651938931</v>
       </c>
       <c r="I89" s="2">
-        <v>0.2895678502614919</v>
+        <v>0.28857693366363879</v>
       </c>
       <c r="J89" s="2">
-        <v>0.524323813630172</v>
+        <v>0.52640115183467784</v>
       </c>
       <c r="K89" s="2">
-        <v>0.5261461884294254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.52732651099703132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" s="2">
-        <v>0.35713571357135709</v>
+        <v>0.52752752752752752</v>
       </c>
       <c r="F90" s="2">
-        <v>0.40928491975978809</v>
+        <v>0.60912824917674169</v>
       </c>
       <c r="G90" s="2">
-        <v>0.29278401230483542</v>
+        <v>0.4477877754539541</v>
       </c>
       <c r="H90" s="2">
-        <v>0.4093769333811979</v>
+        <v>0.61155578149042189</v>
       </c>
       <c r="I90" s="2">
-        <v>0.22528913801548431</v>
+        <v>0.37794676039430092</v>
       </c>
       <c r="J90" s="2">
-        <v>0.40896650680985719</v>
+        <v>0.61042610813852627</v>
       </c>
       <c r="K90" s="2">
-        <v>0.40904979379888379</v>
+        <v>0.61119556168575762</v>
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3636,13 +3647,13 @@
         <v>1000</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="2">
         <v>0.54777070063694266</v>
@@ -3654,16 +3665,16 @@
         <v>0.42702634185702187</v>
       </c>
       <c r="H91" s="2">
-        <v>0.61287126267221825</v>
+        <v>0.61209099640628306</v>
       </c>
       <c r="I91" s="2">
-        <v>0.39490144784028258</v>
+        <v>0.39539944958875262</v>
       </c>
       <c r="J91" s="2">
-        <v>0.61264045137452783</v>
+        <v>0.6117159424086176</v>
       </c>
       <c r="K91" s="2">
-        <v>0.61130992591979871</v>
+        <v>0.61250913364766879</v>
       </c>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3671,13 +3682,13 @@
         <v>1000</v>
       </c>
       <c r="B92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92" s="2">
         <v>0.58080808080808077</v>
@@ -3689,16 +3700,16 @@
         <v>0.46790605680640318</v>
       </c>
       <c r="H92" s="2">
-        <v>0.68804273068978949</v>
+        <v>0.68894253894253921</v>
       </c>
       <c r="I92" s="2">
-        <v>0.40017700932772687</v>
+        <v>0.40564979942970381</v>
       </c>
       <c r="J92" s="2">
-        <v>0.68667258667258668</v>
+        <v>0.68826173826173831</v>
       </c>
       <c r="K92" s="2">
-        <v>0.68865524453759741</v>
+        <v>0.68966496466496474</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3706,13 +3717,13 @@
         <v>1000</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93" s="2">
         <v>0.39306358381502893</v>
@@ -3724,51 +3735,51 @@
         <v>0.40164789318000838</v>
       </c>
       <c r="H93" s="2">
-        <v>0.52112975335518708</v>
+        <v>0.52217905729466418</v>
       </c>
       <c r="I93" s="2">
-        <v>0.28830167905312409</v>
+        <v>0.284030645013304</v>
       </c>
       <c r="J93" s="2">
-        <v>0.51794680913178026</v>
+        <v>0.52019576441541759</v>
       </c>
       <c r="K93" s="2">
-        <v>0.51893960246561388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.51952493556539803</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" s="2">
-        <v>0.35133513351335133</v>
+        <v>1.001001001001001E-3</v>
       </c>
       <c r="F94" s="2">
-        <v>0.41630893699565452</v>
+        <v>1.066233525432337E-2</v>
       </c>
       <c r="G94" s="2">
-        <v>0.23521236196384329</v>
+        <v>6.5821295762898673E-3</v>
       </c>
       <c r="H94" s="2">
-        <v>0.41734327436607621</v>
+        <v>1.0326965019866199E-2</v>
       </c>
       <c r="I94" s="2">
-        <v>0.22367636187998549</v>
+        <v>4.5207299629547474E-3</v>
       </c>
       <c r="J94" s="2">
-        <v>0.41671750472349361</v>
+        <v>1.0319025327952321E-2</v>
       </c>
       <c r="K94" s="2">
-        <v>0.41726975325992849</v>
+        <v>1.0262678653309151E-2</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3776,13 +3787,13 @@
         <v>1000</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E95" s="2">
         <v>1.592356687898089E-3</v>
@@ -3794,16 +3805,16 @@
         <v>6.9524981669380004E-3</v>
       </c>
       <c r="H95" s="2">
-        <v>1.0718136005431211E-2</v>
+        <v>1.0665316682110191E-2</v>
       </c>
       <c r="I95" s="2">
-        <v>4.903458153765407E-3</v>
+        <v>4.8956779282304987E-3</v>
       </c>
       <c r="J95" s="2">
-        <v>1.0458520454896651E-2</v>
+        <v>1.0632634114418329E-2</v>
       </c>
       <c r="K95" s="2">
-        <v>1.0690391338157039E-2</v>
+        <v>1.0617156610851631E-2</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3811,13 +3822,13 @@
         <v>1000</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -3829,16 +3840,16 @@
         <v>4.0324149326866534E-3</v>
       </c>
       <c r="H96" s="2">
-        <v>9.2766279542967171E-3</v>
+        <v>9.2131999563926838E-3</v>
       </c>
       <c r="I96" s="2">
-        <v>3.3399248707822252E-3</v>
+        <v>3.3818212268640789E-3</v>
       </c>
       <c r="J96" s="2">
-        <v>8.9684979979902033E-3</v>
+        <v>8.9939276259469562E-3</v>
       </c>
       <c r="K96" s="2">
-        <v>9.0244217682642937E-3</v>
+        <v>8.926036469055057E-3</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3846,13 +3857,13 @@
         <v>1000</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -3864,16 +3875,16 @@
         <v>8.3511443028661883E-3</v>
       </c>
       <c r="H97" s="2">
-        <v>1.018956564424757E-2</v>
+        <v>1.043577829463509E-2</v>
       </c>
       <c r="I97" s="2">
-        <v>4.1826733206476868E-3</v>
+        <v>4.0778801774026697E-3</v>
       </c>
       <c r="J97" s="2">
-        <v>1.006585290906661E-2</v>
+        <v>1.002708095211227E-2</v>
       </c>
       <c r="K97" s="2">
-        <v>1.0008847204971491E-2</v>
+        <v>9.9702016457588714E-3</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3881,34 +3892,34 @@
         <v>1000</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="2">
-        <v>0.15615615615615619</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2">
-        <v>0.2156095003029089</v>
+        <v>1.051260967828169E-2</v>
       </c>
       <c r="G98" s="2">
-        <v>3.3352927133596839E-2</v>
+        <v>7.408725343755849E-3</v>
       </c>
       <c r="H98" s="2">
-        <v>0.21589821812121471</v>
+        <v>1.005001576743055E-2</v>
       </c>
       <c r="I98" s="2">
-        <v>0.1398548831059474</v>
+        <v>5.1565971943023873E-3</v>
       </c>
       <c r="J98" s="2">
-        <v>0.2158314574772118</v>
+        <v>1.0030324621912629E-2</v>
       </c>
       <c r="K98" s="2">
-        <v>0.21577813486144201</v>
+        <v>9.9476815435887329E-3</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3916,13 +3927,13 @@
         <v>1000</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -3934,16 +3945,16 @@
         <v>6.8103029521484849E-3</v>
       </c>
       <c r="H99" s="2">
-        <v>9.2205933048886118E-3</v>
+        <v>9.1961570501207356E-3</v>
       </c>
       <c r="I99" s="2">
-        <v>4.5402217218181336E-3</v>
+        <v>4.4732333579420424E-3</v>
       </c>
       <c r="J99" s="2">
-        <v>9.1898738541017853E-3</v>
+        <v>9.0812027993232014E-3</v>
       </c>
       <c r="K99" s="2">
-        <v>9.2600868065966045E-3</v>
+        <v>9.0714324759594185E-3</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3951,13 +3962,13 @@
         <v>1000</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -3969,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="H100" s="2">
-        <v>6.9049549854852468E-3</v>
+        <v>6.8842146387445638E-3</v>
       </c>
       <c r="I100" s="2">
-        <v>2.5199632352607098E-3</v>
+        <v>2.614420687953358E-3</v>
       </c>
       <c r="J100" s="2">
-        <v>6.9646829735525561E-3</v>
+        <v>6.969891826884551E-3</v>
       </c>
       <c r="K100" s="2">
-        <v>6.8964748815066451E-3</v>
+        <v>6.8735574459348608E-3</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3986,13 +3997,13 @@
         <v>1000</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -4004,16 +4015,16 @@
         <v>1.6020544709526061E-2</v>
       </c>
       <c r="H101" s="2">
-        <v>1.6359290972951111E-2</v>
+        <v>1.6603484493767869E-2</v>
       </c>
       <c r="I101" s="2">
-        <v>1.041639353131801E-2</v>
+        <v>1.0725554816920601E-2</v>
       </c>
       <c r="J101" s="2">
-        <v>1.6567006559810929E-2</v>
+        <v>1.670824773505912E-2</v>
       </c>
       <c r="K101" s="2">
-        <v>1.6580182520408191E-2</v>
+        <v>1.6480847735098551E-2</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4021,34 +4032,34 @@
         <v>1000</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E102" s="2">
-        <v>0.14514514514514509</v>
+        <v>0</v>
       </c>
       <c r="F102" s="2">
-        <v>0.21535991277799421</v>
+        <v>1.221337050750913E-2</v>
       </c>
       <c r="G102" s="2">
-        <v>2.832185341511452E-2</v>
+        <v>6.3654070131171636E-3</v>
       </c>
       <c r="H102" s="2">
-        <v>0.2146178311746143</v>
+        <v>1.160450145152235E-2</v>
       </c>
       <c r="I102" s="2">
-        <v>0.1339988361789822</v>
+        <v>5.2638871752068812E-3</v>
       </c>
       <c r="J102" s="2">
-        <v>0.2139710209344905</v>
+        <v>1.150818202673129E-2</v>
       </c>
       <c r="K102" s="2">
-        <v>0.21432691113776331</v>
+        <v>1.1559315774460699E-2</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4056,13 +4067,13 @@
         <v>1000</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -4074,16 +4085,16 @@
         <v>4.0360532743801258E-3</v>
       </c>
       <c r="H103" s="2">
-        <v>1.0755545954386809E-2</v>
+        <v>1.0830690445835039E-2</v>
       </c>
       <c r="I103" s="2">
-        <v>4.7762819240915466E-3</v>
+        <v>4.7306764375429832E-3</v>
       </c>
       <c r="J103" s="2">
-        <v>1.060626643189329E-2</v>
+        <v>1.0618809445894649E-2</v>
       </c>
       <c r="K103" s="2">
-        <v>1.068982257956805E-2</v>
+        <v>1.0710159100152531E-2</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4091,13 +4102,13 @@
         <v>1000</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -4109,16 +4120,16 @@
         <v>9.877242802273244E-3</v>
       </c>
       <c r="H104" s="2">
-        <v>1.6260495110699699E-2</v>
+        <v>1.5942691510884691E-2</v>
       </c>
       <c r="I104" s="2">
-        <v>7.3044073258652017E-3</v>
+        <v>7.5034529609216286E-3</v>
       </c>
       <c r="J104" s="2">
-        <v>1.631057716302288E-2</v>
+        <v>1.6285538973902249E-2</v>
       </c>
       <c r="K104" s="2">
-        <v>1.6031754951116951E-2</v>
+        <v>1.6203546718356589E-2</v>
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4126,13 +4137,13 @@
         <v>1000</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -4144,16 +4155,16 @@
         <v>9.3227554704325352E-3</v>
       </c>
       <c r="H105" s="2">
-        <v>8.8273423643103477E-3</v>
+        <v>9.0398643668508274E-3</v>
       </c>
       <c r="I105" s="2">
-        <v>4.4244362791152304E-3</v>
+        <v>4.4561601838803344E-3</v>
       </c>
       <c r="J105" s="2">
-        <v>9.0273398373366086E-3</v>
+        <v>9.0603433698485565E-3</v>
       </c>
       <c r="K105" s="2">
-        <v>8.9934150956357123E-3</v>
+        <v>9.0331054424909255E-3</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4161,34 +4172,34 @@
         <v>1000</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E106" s="2">
-        <v>0.13813813813813811</v>
+        <v>0</v>
       </c>
       <c r="F106" s="2">
-        <v>0.1980755881012311</v>
+        <v>9.992155274332502E-3</v>
       </c>
       <c r="G106" s="2">
-        <v>2.4811710716902E-2</v>
+        <v>6.4056278549662346E-3</v>
       </c>
       <c r="H106" s="2">
-        <v>0.19864606951917421</v>
+        <v>9.9443271766960599E-3</v>
       </c>
       <c r="I106" s="2">
-        <v>0.1303458420147055</v>
+        <v>4.322882712541957E-3</v>
       </c>
       <c r="J106" s="2">
-        <v>0.1965315040905706</v>
+        <v>9.8698023759714905E-3</v>
       </c>
       <c r="K106" s="2">
-        <v>0.19722213826406129</v>
+        <v>9.8289050816168615E-3</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4196,13 +4207,13 @@
         <v>1000</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -4214,16 +4225,16 @@
         <v>3.769241300610778E-3</v>
       </c>
       <c r="H107" s="2">
-        <v>8.0977558761989171E-3</v>
+        <v>8.2157073407842715E-3</v>
       </c>
       <c r="I107" s="2">
-        <v>3.2132326495602618E-3</v>
+        <v>3.218484703914636E-3</v>
       </c>
       <c r="J107" s="2">
-        <v>7.9418215859876351E-3</v>
+        <v>8.0010483504362115E-3</v>
       </c>
       <c r="K107" s="2">
-        <v>8.0067914996388677E-3</v>
+        <v>7.9924134193709272E-3</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4231,13 +4242,13 @@
         <v>1000</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -4249,16 +4260,16 @@
         <v>6.2670695717729234E-3</v>
       </c>
       <c r="H108" s="2">
-        <v>1.536442698503618E-2</v>
+        <v>1.536821444119465E-2</v>
       </c>
       <c r="I108" s="2">
-        <v>6.1020284515154117E-3</v>
+        <v>6.1031752345369252E-3</v>
       </c>
       <c r="J108" s="2">
-        <v>1.546369298816703E-2</v>
+        <v>1.55246908502354E-2</v>
       </c>
       <c r="K108" s="2">
-        <v>1.549892101203156E-2</v>
+        <v>1.544845102432686E-2</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4266,13 +4277,13 @@
         <v>1000</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -4284,51 +4295,51 @@
         <v>1.5610863549419689E-2</v>
       </c>
       <c r="H109" s="2">
-        <v>9.9265892723343421E-3</v>
+        <v>1.008037216381239E-2</v>
       </c>
       <c r="I109" s="2">
-        <v>5.9708369090528454E-3</v>
+        <v>6.032740614233977E-3</v>
       </c>
       <c r="J109" s="2">
-        <v>1.0106218958277581E-2</v>
+        <v>1.003457803010032E-2</v>
       </c>
       <c r="K109" s="2">
-        <v>1.0000650167402611E-2</v>
+        <v>9.7490094160110757E-3</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E110" s="2">
-        <v>0.1326530612244898</v>
+        <v>0.13113113113113109</v>
       </c>
       <c r="F110" s="2">
-        <v>0.22885475701136751</v>
+        <v>0.190240702095376</v>
       </c>
       <c r="G110" s="2">
-        <v>2.447696275103603E-2</v>
+        <v>2.689405145900237E-2</v>
       </c>
       <c r="H110" s="2">
-        <v>0.22688219458741821</v>
+        <v>0.1920527163587081</v>
       </c>
       <c r="I110" s="2">
-        <v>9.3900930335504174E-2</v>
+        <v>0.1246893331083716</v>
       </c>
       <c r="J110" s="2">
-        <v>0.22859906265218369</v>
+        <v>0.191295652623066</v>
       </c>
       <c r="K110" s="2">
-        <v>0.22535518370618571</v>
+        <v>0.1904083563996001</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4336,13 +4347,13 @@
         <v>1000</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E111" s="2">
         <v>0.1464968152866242</v>
@@ -4354,16 +4365,16 @@
         <v>2.584999134044956E-2</v>
       </c>
       <c r="H111" s="2">
-        <v>0.20360048799793801</v>
+        <v>0.2040811098341912</v>
       </c>
       <c r="I111" s="2">
-        <v>0.1372908877477603</v>
+        <v>0.13712684478071629</v>
       </c>
       <c r="J111" s="2">
-        <v>0.20250465149072769</v>
+        <v>0.2022508941659055</v>
       </c>
       <c r="K111" s="2">
-        <v>0.20333383685543871</v>
+        <v>0.20328496836928431</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4371,13 +4382,13 @@
         <v>1000</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E112" s="2">
         <v>9.5959595959595953E-2</v>
@@ -4389,16 +4400,16 @@
         <v>2.8660327905931239E-2</v>
       </c>
       <c r="H112" s="2">
-        <v>0.16500119660173301</v>
+        <v>0.166736172168408</v>
       </c>
       <c r="I112" s="2">
-        <v>9.7936836558087451E-2</v>
+        <v>9.7715346871647735E-2</v>
       </c>
       <c r="J112" s="2">
-        <v>0.16669433264497391</v>
+        <v>0.16738377369836241</v>
       </c>
       <c r="K112" s="2">
-        <v>0.1651710732421979</v>
+        <v>0.1656551407189587</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4406,13 +4417,13 @@
         <v>1000</v>
       </c>
       <c r="B113" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E113" s="2">
         <v>0.115606936416185</v>
@@ -4424,16 +4435,16 @@
         <v>2.8022953089467811E-2</v>
       </c>
       <c r="H113" s="2">
-        <v>0.17306061679914331</v>
+        <v>0.1733098168049034</v>
       </c>
       <c r="I113" s="2">
-        <v>0.10822323148912739</v>
+        <v>0.1075795525188519</v>
       </c>
       <c r="J113" s="2">
-        <v>0.17342969283432541</v>
+        <v>0.1747281418898424</v>
       </c>
       <c r="K113" s="2">
-        <v>0.17480790623534301</v>
+        <v>0.1741117977380349</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4441,34 +4452,34 @@
         <v>1000</v>
       </c>
       <c r="B114" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
         <v>12</v>
       </c>
-      <c r="D114" t="s">
-        <v>13</v>
-      </c>
       <c r="E114" s="2">
-        <v>0.13113113113113109</v>
+        <v>0.13813813813813811</v>
       </c>
       <c r="F114" s="2">
-        <v>0.190240702095376</v>
+        <v>0.1980755881012311</v>
       </c>
       <c r="G114" s="2">
-        <v>2.689405145900237E-2</v>
+        <v>2.4811710716902E-2</v>
       </c>
       <c r="H114" s="2">
-        <v>0.19156161690311219</v>
+        <v>0.19781583277045889</v>
       </c>
       <c r="I114" s="2">
-        <v>0.1246548017548348</v>
+        <v>0.12997843208364429</v>
       </c>
       <c r="J114" s="2">
-        <v>0.19055140933768061</v>
+        <v>0.19649822394955141</v>
       </c>
       <c r="K114" s="2">
-        <v>0.19152014197629849</v>
+        <v>0.1966407303896279</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4476,13 +4487,13 @@
         <v>1000</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E115" s="2">
         <v>0.14808917197452229</v>
@@ -4494,16 +4505,16 @@
         <v>2.555581770330469E-2</v>
       </c>
       <c r="H115" s="2">
-        <v>0.2027104978768651</v>
+        <v>0.20234323833012319</v>
       </c>
       <c r="I115" s="2">
-        <v>0.1424348848995686</v>
+        <v>0.14327438066993051</v>
       </c>
       <c r="J115" s="2">
-        <v>0.20127860146836379</v>
+        <v>0.20119119343804101</v>
       </c>
       <c r="K115" s="2">
-        <v>0.20214942328489999</v>
+        <v>0.20076407961826631</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4511,13 +4522,13 @@
         <v>1000</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E116" s="2">
         <v>0.1313131313131313</v>
@@ -4529,16 +4540,16 @@
         <v>1.9955730487249971E-2</v>
       </c>
       <c r="H116" s="2">
-        <v>0.19137764044865241</v>
+        <v>0.1908250226368649</v>
       </c>
       <c r="I116" s="2">
-        <v>0.116783537968332</v>
+        <v>0.1174521087407655</v>
       </c>
       <c r="J116" s="2">
-        <v>0.1899810119839683</v>
+        <v>0.1900886566051507</v>
       </c>
       <c r="K116" s="2">
-        <v>0.1903890264195334</v>
+        <v>0.19019000090386881</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4546,13 +4557,13 @@
         <v>1000</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E117" s="2">
         <v>0.1098265895953757</v>
@@ -4564,51 +4575,51 @@
         <v>2.8538159788669009E-2</v>
       </c>
       <c r="H117" s="2">
-        <v>0.18514421428068581</v>
+        <v>0.18920131013771169</v>
       </c>
       <c r="I117" s="2">
-        <v>9.8296441951986807E-2</v>
+        <v>9.7692964806842697E-2</v>
       </c>
       <c r="J117" s="2">
-        <v>0.18694861560602069</v>
+        <v>0.1875835549494145</v>
       </c>
       <c r="K117" s="2">
-        <v>0.18571509425559121</v>
+        <v>0.1896684451327213</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E118" s="2">
-        <v>0.1224489795918367</v>
+        <v>0.14514514514514509</v>
       </c>
       <c r="F118" s="2">
-        <v>0.19899950545974471</v>
+        <v>0.21535991277799421</v>
       </c>
       <c r="G118" s="2">
-        <v>1.5797316800672829E-2</v>
+        <v>2.832185341511452E-2</v>
       </c>
       <c r="H118" s="2">
-        <v>0.20086345608892089</v>
+        <v>0.21496949288103259</v>
       </c>
       <c r="I118" s="2">
-        <v>9.7322615417267055E-2</v>
+        <v>0.13379933053316109</v>
       </c>
       <c r="J118" s="2">
-        <v>0.2014112130061971</v>
+        <v>0.21399541919088419</v>
       </c>
       <c r="K118" s="2">
-        <v>0.20181260088091599</v>
+        <v>0.21364763807291909</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4616,13 +4627,13 @@
         <v>1000</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E119" s="2">
         <v>0.15286624203821661</v>
@@ -4634,16 +4645,16 @@
         <v>2.6976027375565571E-2</v>
       </c>
       <c r="H119" s="2">
-        <v>0.2222887817023235</v>
+        <v>0.22232415111791071</v>
       </c>
       <c r="I119" s="2">
-        <v>0.14199398630864729</v>
+        <v>0.14195061723607089</v>
       </c>
       <c r="J119" s="2">
-        <v>0.22141377441843679</v>
+        <v>0.2220066814282195</v>
       </c>
       <c r="K119" s="2">
-        <v>0.2210606823550422</v>
+        <v>0.22190163964106571</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4651,13 +4662,13 @@
         <v>1000</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E120" s="2">
         <v>0.14141414141414141</v>
@@ -4669,16 +4680,16 @@
         <v>2.8478769707665951E-2</v>
       </c>
       <c r="H120" s="2">
-        <v>0.19541181632331239</v>
+        <v>0.19441915095346479</v>
       </c>
       <c r="I120" s="2">
-        <v>0.1172217320565649</v>
+        <v>0.1185395030255396</v>
       </c>
       <c r="J120" s="2">
-        <v>0.19388820099536699</v>
+        <v>0.1957706575364751</v>
       </c>
       <c r="K120" s="2">
-        <v>0.1953513088329695</v>
+        <v>0.1938226945721841</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4686,13 +4697,13 @@
         <v>1000</v>
       </c>
       <c r="B121" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E121" s="2">
         <v>0.1213872832369942</v>
@@ -4704,51 +4715,51 @@
         <v>3.3787793066482052E-2</v>
       </c>
       <c r="H121" s="2">
-        <v>0.20555416269213361</v>
+        <v>0.20832588786984099</v>
       </c>
       <c r="I121" s="2">
-        <v>0.12247195055922</v>
+        <v>0.12278645726536171</v>
       </c>
       <c r="J121" s="2">
-        <v>0.20655390883994229</v>
+        <v>0.2078185643059019</v>
       </c>
       <c r="K121" s="2">
-        <v>0.20646274643395779</v>
+        <v>0.20752397648964091</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="B122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" t="s">
         <v>12</v>
       </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
       <c r="E122" s="2">
-        <v>0.1122448979591837</v>
+        <v>0.15615615615615619</v>
       </c>
       <c r="F122" s="2">
-        <v>0.19765794251406041</v>
+        <v>0.2156095003029089</v>
       </c>
       <c r="G122" s="2">
-        <v>1.293326436953666E-2</v>
+        <v>3.3352927133596839E-2</v>
       </c>
       <c r="H122" s="2">
-        <v>0.19413724684069311</v>
+        <v>0.21604330043556541</v>
       </c>
       <c r="I122" s="2">
-        <v>9.0724944771390925E-2</v>
+        <v>0.14077670698976569</v>
       </c>
       <c r="J122" s="2">
-        <v>0.19616149233426319</v>
+        <v>0.2145940842297617</v>
       </c>
       <c r="K122" s="2">
-        <v>0.19394431286574201</v>
+        <v>0.2151991925318899</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4756,13 +4767,13 @@
         <v>1000</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E123" s="2">
         <v>0.1703821656050955</v>
@@ -4774,16 +4785,16 @@
         <v>3.3304935259992931E-2</v>
       </c>
       <c r="H123" s="2">
-        <v>0.22604449737495949</v>
+        <v>0.22591302510085359</v>
       </c>
       <c r="I123" s="2">
-        <v>0.1531179169205486</v>
+        <v>0.15496694725020879</v>
       </c>
       <c r="J123" s="2">
-        <v>0.22551643742042721</v>
+        <v>0.22546117807210339</v>
       </c>
       <c r="K123" s="2">
-        <v>0.22633647700116991</v>
+        <v>0.22617628490583211</v>
       </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4791,13 +4802,13 @@
         <v>1000</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E124" s="2">
         <v>0.14141414141414141</v>
@@ -4809,16 +4820,16 @@
         <v>3.3978027195178097E-2</v>
       </c>
       <c r="H124" s="2">
-        <v>0.20068496566102551</v>
+        <v>0.20088441949755531</v>
       </c>
       <c r="I124" s="2">
-        <v>0.1215103624419695</v>
+        <v>0.1224107363216332</v>
       </c>
       <c r="J124" s="2">
-        <v>0.19952779228699749</v>
+        <v>0.20193144011724359</v>
       </c>
       <c r="K124" s="2">
-        <v>0.19955644215855339</v>
+        <v>0.19977305332835341</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4826,13 +4837,13 @@
         <v>1000</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E125" s="2">
         <v>0.1213872832369942</v>
@@ -4844,16 +4855,16 @@
         <v>3.2688505735506107E-2</v>
       </c>
       <c r="H125" s="2">
-        <v>0.1918729751673261</v>
+        <v>0.19451463429584009</v>
       </c>
       <c r="I125" s="2">
-        <v>0.1095339271789626</v>
+        <v>0.1098108199706473</v>
       </c>
       <c r="J125" s="2">
-        <v>0.19488306591283261</v>
+        <v>0.19459035049260279</v>
       </c>
       <c r="K125" s="2">
-        <v>0.1937218215912902</v>
+        <v>0.19478156083995851</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -4861,34 +4872,34 @@
         <v>10000</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" t="s">
         <v>12</v>
       </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="2">
-        <v>0.10471047104710469</v>
-      </c>
-      <c r="F126" s="2">
-        <v>0.1563675415267563</v>
+      <c r="E126" s="3">
+        <v>0.48004800480047999</v>
+      </c>
+      <c r="F126" s="3">
+        <v>0.5404109577625239</v>
       </c>
       <c r="G126" s="2">
-        <v>2.481658993250364E-2</v>
-      </c>
-      <c r="H126" s="2">
-        <v>0.15566040462755051</v>
-      </c>
-      <c r="I126" s="2">
-        <v>8.8998828294680532E-2</v>
-      </c>
-      <c r="J126" s="2">
-        <v>0.15483788337132739</v>
-      </c>
-      <c r="K126" s="2">
-        <v>0.15494201125070101</v>
+        <v>0.39582650346400222</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0.54014348196453232</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0.31334483284029269</v>
+      </c>
+      <c r="J126" s="3">
+        <v>0.53968817226822929</v>
+      </c>
+      <c r="K126" s="3">
+        <v>0.54000572827445081</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4896,13 +4907,13 @@
         <v>10000</v>
       </c>
       <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" t="s">
         <v>11</v>
       </c>
-      <c r="C127" t="s">
-        <v>12</v>
-      </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E127" s="2">
         <v>0.36077057793345008</v>
@@ -4914,16 +4925,16 @@
         <v>0.29059779437448469</v>
       </c>
       <c r="H127" s="2">
-        <v>0.40336560134222582</v>
+        <v>0.40339081642545899</v>
       </c>
       <c r="I127" s="2">
-        <v>0.22353777765336441</v>
+        <v>0.22371910890856919</v>
       </c>
       <c r="J127" s="2">
-        <v>0.40310214196491212</v>
+        <v>0.4029918052432267</v>
       </c>
       <c r="K127" s="2">
-        <v>0.4030722734886556</v>
+        <v>0.40339544842972541</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4931,13 +4942,13 @@
         <v>10000</v>
       </c>
       <c r="B128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" t="s">
         <v>11</v>
       </c>
-      <c r="C128" t="s">
-        <v>12</v>
-      </c>
       <c r="D128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E128" s="2">
         <v>0.48012078510317058</v>
@@ -4949,16 +4960,16 @@
         <v>0.35180834783921139</v>
       </c>
       <c r="H128" s="2">
-        <v>0.56462978433674849</v>
+        <v>0.56465509117417678</v>
       </c>
       <c r="I128" s="2">
-        <v>0.30673799131568752</v>
+        <v>0.30690660943554748</v>
       </c>
       <c r="J128" s="2">
-        <v>0.5648071214293362</v>
+        <v>0.56423088098410723</v>
       </c>
       <c r="K128" s="2">
-        <v>0.56466011030909224</v>
+        <v>0.56497968688265987</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4966,69 +4977,69 @@
         <v>10000</v>
       </c>
       <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
         <v>11</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="2">
+        <v>0.29173887926054298</v>
+      </c>
+      <c r="F129" s="2">
+        <v>0.35879348442173398</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0.24540893241990161</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.35803483265618757</v>
+      </c>
+      <c r="I129" s="2">
+        <v>0.1845459876366867</v>
+      </c>
+      <c r="J129" s="2">
+        <v>0.35783981309295448</v>
+      </c>
+      <c r="K129" s="2">
+        <v>0.35735383038289709</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>10000</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
         <v>18</v>
       </c>
-      <c r="D129" t="s">
-        <v>16</v>
-      </c>
-      <c r="E129" s="2">
-        <v>0.39688041594454071</v>
-      </c>
-      <c r="F129" s="2">
-        <v>0.48073617641053018</v>
-      </c>
-      <c r="G129" s="2">
-        <v>0.3346461878177488</v>
-      </c>
-      <c r="H129" s="2">
-        <v>0.48116744123546351</v>
-      </c>
-      <c r="I129" s="2">
-        <v>0.27716878825044788</v>
-      </c>
-      <c r="J129" s="2">
-        <v>0.47944734531307748</v>
-      </c>
-      <c r="K129" s="2">
-        <v>0.47934502980835209</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>1000</v>
-      </c>
-      <c r="B130" t="s">
-        <v>21</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>12</v>
       </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
       <c r="E130" s="2">
-        <v>1.001001001001001E-3</v>
+        <v>0.47764776477647758</v>
       </c>
       <c r="F130" s="2">
-        <v>1.066233525432337E-2</v>
-      </c>
-      <c r="G130" s="2">
-        <v>6.5821295762898673E-3</v>
+        <v>0.53886118003196704</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0.39775478140539239</v>
       </c>
       <c r="H130" s="2">
-        <v>1.038405740494381E-2</v>
+        <v>0.53838196671312</v>
       </c>
       <c r="I130" s="2">
-        <v>4.4651186134488418E-3</v>
+        <v>0.30871686576276142</v>
       </c>
       <c r="J130" s="2">
-        <v>1.017880964373208E-2</v>
+        <v>0.53826171214560348</v>
       </c>
       <c r="K130" s="2">
-        <v>1.028167760578718E-2</v>
+        <v>0.5385418918959004</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5036,13 +5047,13 @@
         <v>10000</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E131" s="2">
         <v>0.34644164941888228</v>
@@ -5054,16 +5065,16 @@
         <v>0.28041326020793761</v>
       </c>
       <c r="H131" s="2">
-        <v>0.38514718549245031</v>
+        <v>0.38567971694092762</v>
       </c>
       <c r="I131" s="2">
-        <v>0.21469825041310481</v>
+        <v>0.21449636443268039</v>
       </c>
       <c r="J131" s="2">
-        <v>0.38542905560290658</v>
+        <v>0.38537435758567329</v>
       </c>
       <c r="K131" s="2">
-        <v>0.38534190603595958</v>
+        <v>0.38559336668455629</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5071,13 +5082,13 @@
         <v>10000</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E132" s="2">
         <v>0.44992450931051842</v>
@@ -5089,16 +5100,16 @@
         <v>0.31926978129149952</v>
       </c>
       <c r="H132" s="2">
-        <v>0.52849886160911086</v>
+        <v>0.5279888613707564</v>
       </c>
       <c r="I132" s="2">
-        <v>0.28899366116053993</v>
+        <v>0.28840701198601082</v>
       </c>
       <c r="J132" s="2">
-        <v>0.52829218690955293</v>
+        <v>0.5278419263864389</v>
       </c>
       <c r="K132" s="2">
-        <v>0.52839678517831579</v>
+        <v>0.52788434406353202</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5106,34 +5117,34 @@
         <v>10000</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E133" s="2">
-        <v>0.38937030618139812</v>
+        <v>0.28942807625649908</v>
       </c>
       <c r="F133" s="2">
-        <v>0.47372339201872532</v>
+        <v>0.35701573710236539</v>
       </c>
       <c r="G133" s="2">
-        <v>0.34383449884108291</v>
+        <v>0.25527518521177711</v>
       </c>
       <c r="H133" s="2">
-        <v>0.47383021926272628</v>
+        <v>0.3580553626564002</v>
       </c>
       <c r="I133" s="2">
-        <v>0.26573419339577969</v>
+        <v>0.19119662238736571</v>
       </c>
       <c r="J133" s="2">
-        <v>0.4719899002555672</v>
+        <v>0.35748398939493581</v>
       </c>
       <c r="K133" s="2">
-        <v>0.47214248296105099</v>
+        <v>0.35729199114174492</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -5141,34 +5152,34 @@
         <v>10000</v>
       </c>
       <c r="B134" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" t="s">
         <v>12</v>
       </c>
-      <c r="D134" t="s">
-        <v>13</v>
-      </c>
       <c r="E134" s="2">
-        <v>4.0004000400040011E-4</v>
+        <v>0.45474547454745468</v>
       </c>
       <c r="F134" s="2">
-        <v>7.3565793468606247E-3</v>
+        <v>0.52618337049816544</v>
       </c>
       <c r="G134" s="2">
-        <v>4.888121359724394E-3</v>
+        <v>0.33073231373449752</v>
       </c>
       <c r="H134" s="2">
-        <v>7.3788276667847742E-3</v>
+        <v>0.52587791768939851</v>
       </c>
       <c r="I134" s="2">
-        <v>3.3151629624856719E-3</v>
+        <v>0.30184140817601518</v>
       </c>
       <c r="J134" s="2">
-        <v>7.274381367537797E-3</v>
+        <v>0.52554172052683179</v>
       </c>
       <c r="K134" s="2">
-        <v>7.2548941290046919E-3</v>
+        <v>0.52574575823359182</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5176,13 +5187,13 @@
         <v>10000</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E135" s="2">
         <v>0.48224804967361878</v>
@@ -5194,16 +5205,16 @@
         <v>0.40492804234730928</v>
       </c>
       <c r="H135" s="2">
-        <v>0.52817433894679</v>
+        <v>0.52828961866734536</v>
       </c>
       <c r="I135" s="2">
-        <v>0.31018437883137379</v>
+        <v>0.310393138021264</v>
       </c>
       <c r="J135" s="2">
-        <v>0.52765572537105776</v>
+        <v>0.52798876212731782</v>
       </c>
       <c r="K135" s="2">
-        <v>0.52742221864762295</v>
+        <v>0.52769954833484412</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5211,13 +5222,13 @@
         <v>10000</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E136" s="2">
         <v>0.54554604932058381</v>
@@ -5229,16 +5240,16 @@
         <v>0.37022676537290022</v>
       </c>
       <c r="H136" s="2">
-        <v>0.63060879582276996</v>
+        <v>0.63078425213080214</v>
       </c>
       <c r="I136" s="2">
-        <v>0.35458739874649159</v>
+        <v>0.35363921581245927</v>
       </c>
       <c r="J136" s="2">
-        <v>0.63061813807924438</v>
+        <v>0.63030924432946389</v>
       </c>
       <c r="K136" s="2">
-        <v>0.63032278280390841</v>
+        <v>0.63040536483865661</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5246,34 +5257,34 @@
         <v>10000</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E137" s="2">
-        <v>0.35644136337377241</v>
+        <v>0.39688041594454071</v>
       </c>
       <c r="F137" s="2">
-        <v>0.44869987584404641</v>
+        <v>0.48073617641053018</v>
       </c>
       <c r="G137" s="2">
-        <v>0.30436128254543521</v>
+        <v>0.3346461878177488</v>
       </c>
       <c r="H137" s="2">
-        <v>0.44781587971193582</v>
+        <v>0.48087470913775637</v>
       </c>
       <c r="I137" s="2">
-        <v>0.26064330947261588</v>
+        <v>0.27724651704287762</v>
       </c>
       <c r="J137" s="2">
-        <v>0.44812442440375672</v>
+        <v>0.48004397269150018</v>
       </c>
       <c r="K137" s="2">
-        <v>0.44814481986986271</v>
+        <v>0.48004644330970531</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -5281,34 +5292,34 @@
         <v>10000</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E138" s="2">
-        <v>4.0004000400040011E-4</v>
+        <v>0.45434543454345427</v>
       </c>
       <c r="F138" s="2">
-        <v>6.6133766353933619E-3</v>
+        <v>0.52536647319603458</v>
       </c>
       <c r="G138" s="2">
-        <v>4.3910751583741813E-3</v>
+        <v>0.33611374801305938</v>
       </c>
       <c r="H138" s="2">
-        <v>6.6481530448387347E-3</v>
+        <v>0.52552141722297618</v>
       </c>
       <c r="I138" s="2">
-        <v>2.9783538512715528E-3</v>
+        <v>0.30185152670415188</v>
       </c>
       <c r="J138" s="2">
-        <v>6.5826345151110176E-3</v>
+        <v>0.52492774231375217</v>
       </c>
       <c r="K138" s="2">
-        <v>6.60229184066296E-3</v>
+        <v>0.52525076114510738</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5316,13 +5327,13 @@
         <v>10000</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E139" s="2">
         <v>0.47890463302021968</v>
@@ -5334,16 +5345,16 @@
         <v>0.39024849398253042</v>
       </c>
       <c r="H139" s="2">
-        <v>0.52593015522122477</v>
+        <v>0.52590684239026086</v>
       </c>
       <c r="I139" s="2">
-        <v>0.30573086848759551</v>
+        <v>0.30563398680401532</v>
       </c>
       <c r="J139" s="2">
-        <v>0.52540467227677468</v>
+        <v>0.52575012207037397</v>
       </c>
       <c r="K139" s="2">
-        <v>0.5255346111226824</v>
+        <v>0.5256624996712983</v>
       </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5351,13 +5362,13 @@
         <v>10000</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E140" s="2">
         <v>0.55057876195269251</v>
@@ -5369,16 +5380,16 @@
         <v>0.3913032329784541</v>
       </c>
       <c r="H140" s="2">
-        <v>0.63529735265384968</v>
+        <v>0.635225070775568</v>
       </c>
       <c r="I140" s="2">
-        <v>0.35636602551623692</v>
+        <v>0.35558846027480367</v>
       </c>
       <c r="J140" s="2">
-        <v>0.63501595827907731</v>
+        <v>0.6346755468731935</v>
       </c>
       <c r="K140" s="2">
-        <v>0.63533512237174739</v>
+        <v>0.6348801898195513</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5386,69 +5397,69 @@
         <v>10000</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E141" s="2">
-        <v>0.34662045060658581</v>
+        <v>0.38937030618139812</v>
       </c>
       <c r="F141" s="2">
-        <v>0.43812632265243512</v>
+        <v>0.47372339201872532</v>
       </c>
       <c r="G141" s="2">
-        <v>0.2647216169731898</v>
+        <v>0.34383449884108291</v>
       </c>
       <c r="H141" s="2">
-        <v>0.43791447501439901</v>
+        <v>0.47326707162599951</v>
       </c>
       <c r="I141" s="2">
-        <v>0.25060928600921822</v>
+        <v>0.26509527973489638</v>
       </c>
       <c r="J141" s="2">
-        <v>0.4370158347757559</v>
+        <v>0.47247432522017918</v>
       </c>
       <c r="K141" s="2">
-        <v>0.43748859010126639</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.47326096713083282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s">
         <v>12</v>
       </c>
-      <c r="D142" t="s">
-        <v>13</v>
-      </c>
       <c r="E142" s="2">
-        <v>0</v>
+        <v>0.37253725372537261</v>
       </c>
       <c r="F142" s="2">
-        <v>1.1837374764347401E-2</v>
+        <v>0.42740356681377378</v>
       </c>
       <c r="G142" s="2">
-        <v>7.1641945685503141E-3</v>
+        <v>0.30709554733086852</v>
       </c>
       <c r="H142" s="2">
-        <v>1.1287795016017959E-2</v>
+        <v>0.42745539377636838</v>
       </c>
       <c r="I142" s="2">
-        <v>5.0309966169643869E-3</v>
+        <v>0.23357765771595401</v>
       </c>
       <c r="J142" s="2">
-        <v>1.0822024415700579E-2</v>
+        <v>0.42710745327328209</v>
       </c>
       <c r="K142" s="2">
-        <v>1.1128815480498331E-2</v>
+        <v>0.42753566354158501</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5456,13 +5467,13 @@
         <v>10000</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E143" s="2">
         <v>0.34962585575545302</v>
@@ -5474,16 +5485,16 @@
         <v>0.257206539077806</v>
       </c>
       <c r="H143" s="2">
-        <v>0.40214391883647682</v>
+        <v>0.40233082699777301</v>
       </c>
       <c r="I143" s="2">
-        <v>0.21825466584723829</v>
+        <v>0.21827278857629381</v>
       </c>
       <c r="J143" s="2">
-        <v>0.40202547301032932</v>
+        <v>0.40209710442245328</v>
       </c>
       <c r="K143" s="2">
-        <v>0.4019179854005594</v>
+        <v>0.40205029298847522</v>
       </c>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5491,13 +5502,13 @@
         <v>10000</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E144" s="2">
         <v>0.46149974836436841</v>
@@ -5509,16 +5520,16 @@
         <v>0.30198863008604088</v>
       </c>
       <c r="H144" s="2">
-        <v>0.5530639030979202</v>
+        <v>0.55303448715763259</v>
       </c>
       <c r="I144" s="2">
-        <v>0.2967998696717179</v>
+        <v>0.29701990014205171</v>
       </c>
       <c r="J144" s="2">
-        <v>0.55310625567640659</v>
+        <v>0.55243900333162188</v>
       </c>
       <c r="K144" s="2">
-        <v>0.55225548838434402</v>
+        <v>0.55294037013267605</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5526,69 +5537,69 @@
         <v>10000</v>
       </c>
       <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
         <v>11</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0.2732524552281918</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0.35334518636420492</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0.18863319994009831</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0.35229245578595342</v>
+      </c>
+      <c r="I145" s="2">
+        <v>0.18259971862658181</v>
+      </c>
+      <c r="J145" s="2">
+        <v>0.35093765154563888</v>
+      </c>
+      <c r="K145" s="2">
+        <v>0.3511892393865802</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>10000</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" t="s">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s">
         <v>12</v>
       </c>
-      <c r="D145" t="s">
-        <v>16</v>
-      </c>
-      <c r="E145" s="2">
-        <v>0.29173887926054298</v>
-      </c>
-      <c r="F145" s="2">
-        <v>0.35879348442173398</v>
-      </c>
-      <c r="G145" s="2">
-        <v>0.24540893241990161</v>
-      </c>
-      <c r="H145" s="2">
-        <v>0.35810448445264031</v>
-      </c>
-      <c r="I145" s="2">
-        <v>0.18463563096723121</v>
-      </c>
-      <c r="J145" s="2">
-        <v>0.35646153643790418</v>
-      </c>
-      <c r="K145" s="2">
-        <v>0.35707636507482993</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>100</v>
-      </c>
-      <c r="B146" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" t="s">
-        <v>17</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
       <c r="E146" s="2">
-        <v>0</v>
+        <v>0.35863586358635863</v>
       </c>
       <c r="F146" s="2">
-        <v>8.0048832819198702E-3</v>
+        <v>0.42314546400860392</v>
       </c>
       <c r="G146" s="2">
-        <v>5.8791326197585861E-3</v>
+        <v>0.26092695314383701</v>
       </c>
       <c r="H146" s="2">
-        <v>8.2834550042302051E-3</v>
+        <v>0.42350777123826178</v>
       </c>
       <c r="I146" s="2">
-        <v>3.1360162121848948E-3</v>
+        <v>0.227940325906032</v>
       </c>
       <c r="J146" s="2">
-        <v>8.0992514780382739E-3</v>
+        <v>0.42337888315190542</v>
       </c>
       <c r="K146" s="2">
-        <v>8.2147693029354166E-3</v>
+        <v>0.42339275376035579</v>
       </c>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5596,13 +5607,13 @@
         <v>10000</v>
       </c>
       <c r="B147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E147" s="2">
         <v>0.34007323674574108</v>
@@ -5614,16 +5625,16 @@
         <v>0.23269645198976149</v>
       </c>
       <c r="H147" s="2">
-        <v>0.39500735322142638</v>
+        <v>0.39530369467740017</v>
       </c>
       <c r="I147" s="2">
-        <v>0.2114447404450869</v>
+        <v>0.2113520539178218</v>
       </c>
       <c r="J147" s="2">
-        <v>0.3952113218515203</v>
+        <v>0.39503675968376312</v>
       </c>
       <c r="K147" s="2">
-        <v>0.39509181462722892</v>
+        <v>0.39509246329823711</v>
       </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5631,13 +5642,13 @@
         <v>10000</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E148" s="2">
         <v>0.44690488173125309</v>
@@ -5649,16 +5660,16 @@
         <v>0.27774356426542501</v>
       </c>
       <c r="H148" s="2">
-        <v>0.53230215261703195</v>
+        <v>0.53208053119379339</v>
       </c>
       <c r="I148" s="2">
-        <v>0.2855101051850511</v>
+        <v>0.285170591453341</v>
       </c>
       <c r="J148" s="2">
-        <v>0.53176044630704777</v>
+        <v>0.53104613964226699</v>
       </c>
       <c r="K148" s="2">
-        <v>0.53246146350449841</v>
+        <v>0.53184734611244922</v>
       </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5666,69 +5677,69 @@
         <v>10000</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
+        <v>15</v>
+      </c>
+      <c r="E149" s="2">
+        <v>0.28249566724436742</v>
+      </c>
+      <c r="F149" s="2">
+        <v>0.36405685769847601</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0.1866681915646409</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0.36551799335009583</v>
+      </c>
+      <c r="I149" s="2">
+        <v>0.19536972245384079</v>
+      </c>
+      <c r="J149" s="2">
+        <v>0.36418250485942688</v>
+      </c>
+      <c r="K149" s="2">
+        <v>0.36417482195508238</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>10000</v>
+      </c>
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" t="s">
         <v>16</v>
       </c>
-      <c r="E149" s="2">
-        <v>0.28942807625649908</v>
-      </c>
-      <c r="F149" s="2">
-        <v>0.35701573710236539</v>
-      </c>
-      <c r="G149" s="2">
-        <v>0.25527518521177711</v>
-      </c>
-      <c r="H149" s="2">
-        <v>0.35775867013961971</v>
-      </c>
-      <c r="I149" s="2">
-        <v>0.19092672425198681</v>
-      </c>
-      <c r="J149" s="2">
-        <v>0.35651905956774999</v>
-      </c>
-      <c r="K149" s="2">
-        <v>0.35624663144656832</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>100</v>
-      </c>
-      <c r="B150" t="s">
-        <v>21</v>
-      </c>
-      <c r="C150" t="s">
-        <v>18</v>
-      </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E150" s="2">
-        <v>0</v>
+        <v>0.35713571357135709</v>
       </c>
       <c r="F150" s="2">
-        <v>1.119683553720619E-2</v>
+        <v>0.40928491975978809</v>
       </c>
       <c r="G150" s="2">
-        <v>5.0259789963944057E-3</v>
+        <v>0.29278401230483542</v>
       </c>
       <c r="H150" s="2">
-        <v>1.143278750965214E-2</v>
+        <v>0.40890431114251602</v>
       </c>
       <c r="I150" s="2">
-        <v>4.5519008880877364E-3</v>
+        <v>0.2253063147558482</v>
       </c>
       <c r="J150" s="2">
-        <v>1.1375400742459499E-2</v>
+        <v>0.4089103923357279</v>
       </c>
       <c r="K150" s="2">
-        <v>1.1326092714057399E-2</v>
+        <v>0.40900680863793992</v>
       </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5736,13 +5747,13 @@
         <v>10000</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E151" s="2">
         <v>0.45183887915936949</v>
@@ -5754,16 +5765,16 @@
         <v>0.33881297072330058</v>
       </c>
       <c r="H151" s="2">
-        <v>0.50878460129348668</v>
+        <v>0.50884417202096066</v>
       </c>
       <c r="I151" s="2">
-        <v>0.29469097496640911</v>
+        <v>0.29499233664494001</v>
       </c>
       <c r="J151" s="2">
-        <v>0.50831210940457472</v>
+        <v>0.50813237498207187</v>
       </c>
       <c r="K151" s="2">
-        <v>0.50823874073845676</v>
+        <v>0.5081395718418984</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5771,13 +5782,13 @@
         <v>10000</v>
       </c>
       <c r="B152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E152" s="2">
         <v>0.54755913437342729</v>
@@ -5789,16 +5800,16 @@
         <v>0.32626035019215333</v>
       </c>
       <c r="H152" s="2">
-        <v>0.64577184088133732</v>
+        <v>0.64572348770167232</v>
       </c>
       <c r="I152" s="2">
-        <v>0.35892113364203632</v>
+        <v>0.35903208548235549</v>
       </c>
       <c r="J152" s="2">
-        <v>0.64517263577700246</v>
+        <v>0.64437822950144208</v>
       </c>
       <c r="K152" s="2">
-        <v>0.64477634651489779</v>
+        <v>0.64500592786720012</v>
       </c>
     </row>
     <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5806,69 +5817,69 @@
         <v>10000</v>
       </c>
       <c r="B153" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C153" t="s">
         <v>17</v>
       </c>
       <c r="D153" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="2">
+        <v>0.35644136337377241</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0.44869987584404641</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0.30436128254543521</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0.44840675829974919</v>
+      </c>
+      <c r="I153" s="2">
+        <v>0.26084068243692071</v>
+      </c>
+      <c r="J153" s="2">
+        <v>0.44831981193821258</v>
+      </c>
+      <c r="K153" s="2">
+        <v>0.44757973970280612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>10000</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" t="s">
         <v>16</v>
       </c>
-      <c r="E153" s="2">
-        <v>0.28249566724436742</v>
-      </c>
-      <c r="F153" s="2">
-        <v>0.36405685769847601</v>
-      </c>
-      <c r="G153" s="2">
-        <v>0.1866681915646409</v>
-      </c>
-      <c r="H153" s="2">
-        <v>0.36529785992996072</v>
-      </c>
-      <c r="I153" s="2">
-        <v>0.1946747632739019</v>
-      </c>
-      <c r="J153" s="2">
-        <v>0.36339525870250478</v>
-      </c>
-      <c r="K153" s="2">
-        <v>0.36411878652674551</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>100</v>
-      </c>
-      <c r="B154" t="s">
-        <v>21</v>
-      </c>
-      <c r="C154" t="s">
-        <v>19</v>
-      </c>
       <c r="D154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E154" s="2">
-        <v>0</v>
+        <v>0.35133513351335133</v>
       </c>
       <c r="F154" s="2">
-        <v>3.289355688379814E-3</v>
+        <v>0.41630893699565452</v>
       </c>
       <c r="G154" s="2">
-        <v>0</v>
+        <v>0.23521236196384329</v>
       </c>
       <c r="H154" s="2">
-        <v>3.7252996436669909E-3</v>
+        <v>0.41698381462809542</v>
       </c>
       <c r="I154" s="2">
-        <v>1.093037637888136E-3</v>
+        <v>0.2234689742900233</v>
       </c>
       <c r="J154" s="2">
-        <v>3.4733322835797868E-3</v>
+        <v>0.41737559269398372</v>
       </c>
       <c r="K154" s="2">
-        <v>3.6561643595946678E-3</v>
+        <v>0.41691384044013519</v>
       </c>
     </row>
     <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5876,13 +5887,13 @@
         <v>10000</v>
       </c>
       <c r="B155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155" s="2">
         <v>0.45136124820888401</v>
@@ -5894,16 +5905,16 @@
         <v>0.34551699136189679</v>
       </c>
       <c r="H155" s="2">
-        <v>0.50882922538957409</v>
+        <v>0.50929076230779802</v>
       </c>
       <c r="I155" s="2">
-        <v>0.29719388833079069</v>
+        <v>0.29741526487431541</v>
       </c>
       <c r="J155" s="2">
-        <v>0.50874513237043018</v>
+        <v>0.50852633609425024</v>
       </c>
       <c r="K155" s="2">
-        <v>0.50879141443209719</v>
+        <v>0.50847505431798035</v>
       </c>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5911,13 +5922,13 @@
         <v>10000</v>
       </c>
       <c r="B156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E156" s="2">
         <v>0.55963764469048816</v>
@@ -5929,16 +5940,16 @@
         <v>0.33240273310633012</v>
       </c>
       <c r="H156" s="2">
-        <v>0.65494757335094422</v>
+        <v>0.65562101709170162</v>
       </c>
       <c r="I156" s="2">
-        <v>0.36103336032597289</v>
+        <v>0.36080665953299013</v>
       </c>
       <c r="J156" s="2">
-        <v>0.65469019662425132</v>
+        <v>0.65519790876388762</v>
       </c>
       <c r="K156" s="2">
-        <v>0.65557282616142154</v>
+        <v>0.65512528433967465</v>
       </c>
     </row>
     <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5946,39 +5957,39 @@
         <v>10000</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E157" s="2">
-        <v>0.2732524552281918</v>
+        <v>0.34662045060658581</v>
       </c>
       <c r="F157" s="2">
-        <v>0.35334518636420492</v>
+        <v>0.43812632265243512</v>
       </c>
       <c r="G157" s="2">
-        <v>0.18863319994009831</v>
+        <v>0.2647216169731898</v>
       </c>
       <c r="H157" s="2">
-        <v>0.35201236890603771</v>
+        <v>0.43786025320639288</v>
       </c>
       <c r="I157" s="2">
-        <v>0.1823465705614753</v>
+        <v>0.25053281856522069</v>
       </c>
       <c r="J157" s="2">
-        <v>0.35068539436675172</v>
+        <v>0.43717451905405291</v>
       </c>
       <c r="K157" s="2">
-        <v>0.35078877244626733</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.43754419791432531</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B158" t="s">
         <v>21</v>
@@ -5987,28 +5998,28 @@
         <v>17</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E158" s="2">
-        <v>0</v>
+        <v>0.1316131613161316</v>
       </c>
       <c r="F158" s="2">
-        <v>1.051260967828169E-2</v>
+        <v>0.19410771387253581</v>
       </c>
       <c r="G158" s="2">
-        <v>7.408725343755849E-3</v>
+        <v>2.5075189455366381E-2</v>
       </c>
       <c r="H158" s="2">
-        <v>1.0157535504650549E-2</v>
+        <v>0.193064039061599</v>
       </c>
       <c r="I158" s="2">
-        <v>5.2141150729770724E-3</v>
+        <v>0.1138211686377822</v>
       </c>
       <c r="J158" s="2">
-        <v>1.0097313648480429E-2</v>
+        <v>0.19262940300725859</v>
       </c>
       <c r="K158" s="2">
-        <v>1.008012953218488E-2</v>
+        <v>0.192923623713808</v>
       </c>
     </row>
     <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6016,13 +6027,13 @@
         <v>10000</v>
       </c>
       <c r="B159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E159" s="2">
         <v>1.5921031682853049E-4</v>
@@ -6034,16 +6045,16 @@
         <v>3.7251353685311709E-3</v>
       </c>
       <c r="H159" s="2">
-        <v>6.4429559539802769E-3</v>
+        <v>6.4198449040566569E-3</v>
       </c>
       <c r="I159" s="2">
-        <v>2.868811367992101E-3</v>
+        <v>2.8608373713489531E-3</v>
       </c>
       <c r="J159" s="2">
-        <v>6.3777818486681678E-3</v>
+        <v>6.3758759342716449E-3</v>
       </c>
       <c r="K159" s="2">
-        <v>6.3873387977231846E-3</v>
+        <v>6.4176373559032803E-3</v>
       </c>
     </row>
     <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6051,13 +6062,13 @@
         <v>10000</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E160" s="2">
         <v>1.0065425264217411E-3</v>
@@ -6069,16 +6080,16 @@
         <v>6.9494643374701428E-3</v>
       </c>
       <c r="H160" s="2">
-        <v>1.0204131098285879E-2</v>
+        <v>1.020584358012238E-2</v>
       </c>
       <c r="I160" s="2">
-        <v>4.9513312171100068E-3</v>
+        <v>4.8771363135614552E-3</v>
       </c>
       <c r="J160" s="2">
-        <v>9.9968585899844701E-3</v>
+        <v>1.005042518393278E-2</v>
       </c>
       <c r="K160" s="2">
-        <v>1.000508106461653E-2</v>
+        <v>1.003064654018068E-2</v>
       </c>
     </row>
     <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6086,39 +6097,39 @@
         <v>10000</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" s="2">
-        <v>7.7411900635470821E-2</v>
+        <v>5.7770075101097628E-4</v>
       </c>
       <c r="F161" s="2">
-        <v>0.13823723809706159</v>
+        <v>7.0906416622120516E-3</v>
       </c>
       <c r="G161" s="2">
-        <v>2.4785551312362E-2</v>
+        <v>6.6444925763440724E-3</v>
       </c>
       <c r="H161" s="2">
-        <v>0.1377892011374541</v>
+        <v>7.3125927662077627E-3</v>
       </c>
       <c r="I161" s="2">
-        <v>7.1228103766931533E-2</v>
+        <v>2.977649185677533E-3</v>
       </c>
       <c r="J161" s="2">
-        <v>0.1369001374633739</v>
+        <v>7.2370606450720028E-3</v>
       </c>
       <c r="K161" s="2">
-        <v>0.136698806856551</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2413842876215308E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B162" t="s">
         <v>21</v>
@@ -6127,28 +6138,28 @@
         <v>18</v>
       </c>
       <c r="D162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E162" s="2">
-        <v>0</v>
+        <v>0.12961296129612959</v>
       </c>
       <c r="F162" s="2">
-        <v>1.221337050750913E-2</v>
+        <v>0.189306483263776</v>
       </c>
       <c r="G162" s="2">
-        <v>6.3654070131171636E-3</v>
+        <v>2.8094379235779319E-2</v>
       </c>
       <c r="H162" s="2">
-        <v>1.1618563233920361E-2</v>
+        <v>0.18867632291099501</v>
       </c>
       <c r="I162" s="2">
-        <v>5.3046799514716294E-3</v>
+        <v>0.1129703263585775</v>
       </c>
       <c r="J162" s="2">
-        <v>1.148067271643062E-2</v>
+        <v>0.18834531862449891</v>
       </c>
       <c r="K162" s="2">
-        <v>1.1517902031345331E-2</v>
+        <v>0.18843681869987111</v>
       </c>
     </row>
     <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6156,13 +6167,13 @@
         <v>10000</v>
       </c>
       <c r="B163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E163" s="2">
         <v>3.1842063365706099E-4</v>
@@ -6174,16 +6185,16 @@
         <v>3.2725690629617451E-3</v>
       </c>
       <c r="H163" s="2">
-        <v>5.9306273665546798E-3</v>
+        <v>5.9450223778669247E-3</v>
       </c>
       <c r="I163" s="2">
-        <v>2.5935467106376151E-3</v>
+        <v>2.6013667865399958E-3</v>
       </c>
       <c r="J163" s="2">
-        <v>5.8795300836193892E-3</v>
+        <v>5.901481798025637E-3</v>
       </c>
       <c r="K163" s="2">
-        <v>5.8707266906684536E-3</v>
+        <v>5.9173790394290906E-3</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6191,13 +6202,13 @@
         <v>10000</v>
       </c>
       <c r="B164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E164" s="2">
         <v>5.0327126321087065E-4</v>
@@ -6209,16 +6220,16 @@
         <v>6.3313277158783257E-3</v>
       </c>
       <c r="H164" s="2">
-        <v>8.4644015825470608E-3</v>
+        <v>8.4563868250055359E-3</v>
       </c>
       <c r="I164" s="2">
-        <v>3.776444603338217E-3</v>
+        <v>3.7698937138665222E-3</v>
       </c>
       <c r="J164" s="2">
-        <v>8.403868149043852E-3</v>
+        <v>8.3694832878878894E-3</v>
       </c>
       <c r="K164" s="2">
-        <v>8.401503154944534E-3</v>
+        <v>8.3589355611984328E-3</v>
       </c>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6226,69 +6237,69 @@
         <v>10000</v>
       </c>
       <c r="B165" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C165" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E165" s="2">
         <v>5.7770075101097628E-4</v>
       </c>
       <c r="F165" s="2">
-        <v>7.0906416622120516E-3</v>
+        <v>6.9049937830537719E-3</v>
       </c>
       <c r="G165" s="2">
-        <v>6.6444925763440724E-3</v>
+        <v>5.7087490261664934E-3</v>
       </c>
       <c r="H165" s="2">
-        <v>7.3237386487345207E-3</v>
+        <v>7.064387833544572E-3</v>
       </c>
       <c r="I165" s="2">
-        <v>2.9730110480606208E-3</v>
+        <v>3.3581804601451859E-3</v>
       </c>
       <c r="J165" s="2">
-        <v>7.2492150870093917E-3</v>
+        <v>6.964467796531244E-3</v>
       </c>
       <c r="K165" s="2">
-        <v>7.2603082842786406E-3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.8463397412392938E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="B166" t="s">
         <v>21</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E166" s="2">
-        <v>0</v>
+        <v>0.10471047104710469</v>
       </c>
       <c r="F166" s="2">
-        <v>9.992155274332502E-3</v>
+        <v>0.1563675415267563</v>
       </c>
       <c r="G166" s="2">
-        <v>6.4056278549662346E-3</v>
+        <v>2.481658993250364E-2</v>
       </c>
       <c r="H166" s="2">
-        <v>9.9525349257610519E-3</v>
+        <v>0.1555248155839376</v>
       </c>
       <c r="I166" s="2">
-        <v>4.3401014039505231E-3</v>
+        <v>8.8921758119917274E-2</v>
       </c>
       <c r="J166" s="2">
-        <v>9.7706955934273396E-3</v>
+        <v>0.15513299068819369</v>
       </c>
       <c r="K166" s="2">
-        <v>9.8550852382963822E-3</v>
+        <v>0.15524212020206091</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6296,34 +6307,34 @@
         <v>10000</v>
       </c>
       <c r="B167" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C167" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E167" s="2">
-        <v>0.11049195987900021</v>
+        <v>4.7763095048559148E-4</v>
       </c>
       <c r="F167" s="2">
-        <v>0.15676849063421081</v>
+        <v>9.4712564502090792E-3</v>
       </c>
       <c r="G167" s="2">
-        <v>2.3000533637135431E-2</v>
+        <v>4.1050805105649537E-3</v>
       </c>
       <c r="H167" s="2">
-        <v>0.15605193960289801</v>
+        <v>9.4490035202363133E-3</v>
       </c>
       <c r="I167" s="2">
-        <v>9.189097345593629E-2</v>
+        <v>4.1853912643152434E-3</v>
       </c>
       <c r="J167" s="2">
-        <v>0.15546686577993599</v>
+        <v>9.4068594070726968E-3</v>
       </c>
       <c r="K167" s="2">
-        <v>0.15560664280941949</v>
+        <v>9.4113498224835633E-3</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6331,34 +6342,34 @@
         <v>10000</v>
       </c>
       <c r="B168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C168" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E168" s="2">
-        <v>0.11021640664318071</v>
+        <v>1.0065425264217411E-3</v>
       </c>
       <c r="F168" s="2">
-        <v>0.17089456412005291</v>
+        <v>1.2840015374136969E-2</v>
       </c>
       <c r="G168" s="2">
-        <v>2.9459657922430708E-2</v>
+        <v>5.6457673372667947E-3</v>
       </c>
       <c r="H168" s="2">
-        <v>0.16937162205122</v>
+        <v>1.2394509286311551E-2</v>
       </c>
       <c r="I168" s="2">
-        <v>9.5092177086532073E-2</v>
+        <v>5.0016885926324178E-3</v>
       </c>
       <c r="J168" s="2">
-        <v>0.16926753165219821</v>
+        <v>1.2225504873467E-2</v>
       </c>
       <c r="K168" s="2">
-        <v>0.16864544327032119</v>
+        <v>1.228112087199437E-2</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6366,38 +6377,738 @@
         <v>10000</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C169" t="s">
         <v>17</v>
       </c>
       <c r="D169" t="s">
+        <v>15</v>
+      </c>
+      <c r="E169" s="2">
+        <v>0</v>
+      </c>
+      <c r="F169" s="2">
+        <v>7.6762560298881252E-3</v>
+      </c>
+      <c r="G169" s="2">
+        <v>5.5970519165593731E-3</v>
+      </c>
+      <c r="H169" s="2">
+        <v>7.7289164601635971E-3</v>
+      </c>
+      <c r="I169" s="2">
+        <v>3.396858345637732E-3</v>
+      </c>
+      <c r="J169" s="2">
+        <v>7.6058281676054697E-3</v>
+      </c>
+      <c r="K169" s="2">
+        <v>7.5811288740854936E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>10000</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" t="s">
         <v>16</v>
       </c>
-      <c r="E169" s="2">
+      <c r="D170" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="2">
+        <v>0.1016101610161016</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0.15230133810950811</v>
+      </c>
+      <c r="G170" s="2">
+        <v>2.5390681667224399E-2</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0.15180178038775169</v>
+      </c>
+      <c r="I170" s="2">
+        <v>8.678564069300243E-2</v>
+      </c>
+      <c r="J170" s="2">
+        <v>0.1515772462302169</v>
+      </c>
+      <c r="K170" s="2">
+        <v>0.1516090139310689</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>10000</v>
+      </c>
+      <c r="B171" t="s">
+        <v>20</v>
+      </c>
+      <c r="C171" t="s">
+        <v>18</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="2">
+        <v>4.7763095048559148E-4</v>
+      </c>
+      <c r="F171" s="2">
+        <v>8.4167161848459644E-3</v>
+      </c>
+      <c r="G171" s="2">
+        <v>4.5167404125080824E-3</v>
+      </c>
+      <c r="H171" s="2">
+        <v>8.3845015712939418E-3</v>
+      </c>
+      <c r="I171" s="2">
+        <v>3.8511162616545361E-3</v>
+      </c>
+      <c r="J171" s="2">
+        <v>8.3460773189951744E-3</v>
+      </c>
+      <c r="K171" s="2">
+        <v>8.3154277090302132E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>10000</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="2">
+        <v>5.0327126321087065E-4</v>
+      </c>
+      <c r="F172" s="2">
+        <v>1.239926160834409E-2</v>
+      </c>
+      <c r="G172" s="2">
+        <v>6.3940783133472866E-3</v>
+      </c>
+      <c r="H172" s="2">
+        <v>1.2072483474531709E-2</v>
+      </c>
+      <c r="I172" s="2">
+        <v>4.7396082582042646E-3</v>
+      </c>
+      <c r="J172" s="2">
+        <v>1.183622261509152E-2</v>
+      </c>
+      <c r="K172" s="2">
+        <v>1.184375264083814E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>10000</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" s="2">
         <v>5.7770075101097628E-4</v>
       </c>
-      <c r="F169" s="2">
-        <v>6.9049937830537719E-3</v>
-      </c>
-      <c r="G169" s="2">
-        <v>5.7087490261664934E-3</v>
-      </c>
-      <c r="H169" s="2">
-        <v>7.0828426906632434E-3</v>
-      </c>
-      <c r="I169" s="2">
-        <v>3.363368137065989E-3</v>
-      </c>
-      <c r="J169" s="2">
-        <v>6.9529999971584683E-3</v>
-      </c>
-      <c r="K169" s="2">
-        <v>6.953746989749837E-3</v>
+      <c r="F173" s="2">
+        <v>8.5252109974373012E-3</v>
+      </c>
+      <c r="G173" s="2">
+        <v>5.5480654817944867E-3</v>
+      </c>
+      <c r="H173" s="2">
+        <v>8.4466126643288689E-3</v>
+      </c>
+      <c r="I173" s="2">
+        <v>4.0253140206443624E-3</v>
+      </c>
+      <c r="J173" s="2">
+        <v>8.2746121768588268E-3</v>
+      </c>
+      <c r="K173" s="2">
+        <v>8.373975547850597E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>10000</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="2">
+        <v>5.0005000500050005E-4</v>
+      </c>
+      <c r="F174" s="2">
+        <v>9.8299501450054751E-3</v>
+      </c>
+      <c r="G174" s="2">
+        <v>4.685984115184714E-3</v>
+      </c>
+      <c r="H174" s="2">
+        <v>9.7294998015314098E-3</v>
+      </c>
+      <c r="I174" s="2">
+        <v>4.2417382588492807E-3</v>
+      </c>
+      <c r="J174" s="2">
+        <v>9.6694703581526546E-3</v>
+      </c>
+      <c r="K174" s="2">
+        <v>9.6734174915980003E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>10000</v>
+      </c>
+      <c r="B175" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="2">
+        <v>0.11049195987900021</v>
+      </c>
+      <c r="F175" s="2">
+        <v>0.15676849063421081</v>
+      </c>
+      <c r="G175" s="2">
+        <v>2.3000533637135431E-2</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0.1558417898297362</v>
+      </c>
+      <c r="I175" s="2">
+        <v>9.1978029901316066E-2</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0.15546635512573909</v>
+      </c>
+      <c r="K175" s="2">
+        <v>0.1556909994080421</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>10000</v>
+      </c>
+      <c r="B176" t="s">
+        <v>21</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="2">
+        <v>0.11021640664318071</v>
+      </c>
+      <c r="F176" s="2">
+        <v>0.17089456412005291</v>
+      </c>
+      <c r="G176" s="2">
+        <v>2.9459657922430708E-2</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0.16920780917409331</v>
+      </c>
+      <c r="I176" s="2">
+        <v>9.5095775895690876E-2</v>
+      </c>
+      <c r="J176" s="2">
+        <v>0.16914002353512281</v>
+      </c>
+      <c r="K176" s="2">
+        <v>0.16886806956586739</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>10000</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="2">
+        <v>7.7411900635470821E-2</v>
+      </c>
+      <c r="F177" s="2">
+        <v>0.13823723809706159</v>
+      </c>
+      <c r="G177" s="2">
+        <v>2.4785551312362E-2</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0.13799301352281701</v>
+      </c>
+      <c r="I177" s="2">
+        <v>7.1485668391442839E-2</v>
+      </c>
+      <c r="J177" s="2">
+        <v>0.1371611152495481</v>
+      </c>
+      <c r="K177" s="2">
+        <v>0.13691981370467721</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>10000</v>
+      </c>
+      <c r="B178" t="s">
+        <v>20</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="2">
+        <v>5.0005000500050005E-4</v>
+      </c>
+      <c r="F178" s="2">
+        <v>9.226909431879305E-3</v>
+      </c>
+      <c r="G178" s="2">
+        <v>5.129207841910957E-3</v>
+      </c>
+      <c r="H178" s="2">
+        <v>9.121795947726781E-3</v>
+      </c>
+      <c r="I178" s="2">
+        <v>4.079180478436974E-3</v>
+      </c>
+      <c r="J178" s="2">
+        <v>9.0265797901246149E-3</v>
+      </c>
+      <c r="K178" s="2">
+        <v>9.0271221724228627E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>10000</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" s="2">
+        <v>0.10842222576022929</v>
+      </c>
+      <c r="F179" s="2">
+        <v>0.15429497995908009</v>
+      </c>
+      <c r="G179" s="2">
+        <v>2.3283595567294459E-2</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.15338962511837381</v>
+      </c>
+      <c r="I179" s="2">
+        <v>8.9941840176907484E-2</v>
+      </c>
+      <c r="J179" s="2">
+        <v>0.15343529401461919</v>
+      </c>
+      <c r="K179" s="2">
+        <v>0.1535786773811984</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>10000</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="2">
+        <v>0.10719677906391541</v>
+      </c>
+      <c r="F180" s="2">
+        <v>0.16072520610819799</v>
+      </c>
+      <c r="G180" s="2">
+        <v>2.8757584334388481E-2</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0.1592281156705049</v>
+      </c>
+      <c r="I180" s="2">
+        <v>9.0128946651737124E-2</v>
+      </c>
+      <c r="J180" s="2">
+        <v>0.15989859531885089</v>
+      </c>
+      <c r="K180" s="2">
+        <v>0.15944906276226839</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>10000</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="2">
+        <v>7.0479491623339108E-2</v>
+      </c>
+      <c r="F181" s="2">
+        <v>0.1353976465031774</v>
+      </c>
+      <c r="G181" s="2">
+        <v>2.7865083706153919E-2</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0.13614269391395509</v>
+      </c>
+      <c r="I181" s="2">
+        <v>7.1062728557723304E-2</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0.13496561729165879</v>
+      </c>
+      <c r="K181" s="2">
+        <v>0.13484042467191379</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>10000</v>
+      </c>
+      <c r="B182" t="s">
+        <v>20</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="2">
+        <v>4.0004000400040011E-4</v>
+      </c>
+      <c r="F182" s="2">
+        <v>7.3565793468606247E-3</v>
+      </c>
+      <c r="G182" s="2">
+        <v>4.888121359724394E-3</v>
+      </c>
+      <c r="H182" s="2">
+        <v>7.3377796790228891E-3</v>
+      </c>
+      <c r="I182" s="2">
+        <v>3.3315274177880879E-3</v>
+      </c>
+      <c r="J182" s="2">
+        <v>7.2618259713973536E-3</v>
+      </c>
+      <c r="K182" s="2">
+        <v>7.2563729071247196E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>10000</v>
+      </c>
+      <c r="B183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="2">
+        <v>0.14074192007642089</v>
+      </c>
+      <c r="F183" s="2">
+        <v>0.19839117837745751</v>
+      </c>
+      <c r="G183" s="2">
+        <v>2.293169482526362E-2</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0.19780698692217269</v>
+      </c>
+      <c r="I183" s="2">
+        <v>0.11723874005561009</v>
+      </c>
+      <c r="J183" s="2">
+        <v>0.19714228049067239</v>
+      </c>
+      <c r="K183" s="2">
+        <v>0.1974590641375254</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>10000</v>
+      </c>
+      <c r="B184" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="2">
+        <v>0.1217916456970307</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0.1893242188212112</v>
+      </c>
+      <c r="G184" s="2">
+        <v>2.760901332117794E-2</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0.18676550643048659</v>
+      </c>
+      <c r="I184" s="2">
+        <v>0.1076659143351538</v>
+      </c>
+      <c r="J184" s="2">
+        <v>0.18625013010075811</v>
+      </c>
+      <c r="K184" s="2">
+        <v>0.1861760256270828</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>10000</v>
+      </c>
+      <c r="B185" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="2">
+        <v>0.10976314269208549</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0.18405593115247179</v>
+      </c>
+      <c r="G185" s="2">
+        <v>2.9689045142999089E-2</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0.18359462748657221</v>
+      </c>
+      <c r="I185" s="2">
+        <v>0.1078584857763291</v>
+      </c>
+      <c r="J185" s="2">
+        <v>0.18320290382982571</v>
+      </c>
+      <c r="K185" s="2">
+        <v>0.1828705838825106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>10000</v>
+      </c>
+      <c r="B186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="2">
+        <v>4.0004000400040011E-4</v>
+      </c>
+      <c r="F186" s="2">
+        <v>6.6133766353933619E-3</v>
+      </c>
+      <c r="G186" s="2">
+        <v>4.3910751583741813E-3</v>
+      </c>
+      <c r="H186" s="2">
+        <v>6.668990941265102E-3</v>
+      </c>
+      <c r="I186" s="2">
+        <v>2.9734126175346241E-3</v>
+      </c>
+      <c r="J186" s="2">
+        <v>6.6153940446075348E-3</v>
+      </c>
+      <c r="K186" s="2">
+        <v>6.5873436156454251E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10000</v>
+      </c>
+      <c r="B187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="2">
+        <v>0.1369208724725362</v>
+      </c>
+      <c r="F187" s="2">
+        <v>0.19252453594869581</v>
+      </c>
+      <c r="G187" s="2">
+        <v>2.3697830623571309E-2</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0.19208169059132729</v>
+      </c>
+      <c r="I187" s="2">
+        <v>0.1161268587276419</v>
+      </c>
+      <c r="J187" s="2">
+        <v>0.1916572302672449</v>
+      </c>
+      <c r="K187" s="2">
+        <v>0.192138976082011</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>10000</v>
+      </c>
+      <c r="B188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
+      <c r="E188" s="2">
+        <v>0.1253145445395068</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0.19023727699869231</v>
+      </c>
+      <c r="G188" s="2">
+        <v>3.7805911206791429E-2</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0.1885794717192808</v>
+      </c>
+      <c r="I188" s="2">
+        <v>0.1127759067475162</v>
+      </c>
+      <c r="J188" s="2">
+        <v>0.18846044839027859</v>
+      </c>
+      <c r="K188" s="2">
+        <v>0.1883089843463715</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>10000</v>
+      </c>
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" t="s">
+        <v>15</v>
+      </c>
+      <c r="E189" s="2">
+        <v>0.10803004043905259</v>
+      </c>
+      <c r="F189" s="2">
+        <v>0.17656120535201381</v>
+      </c>
+      <c r="G189" s="2">
+        <v>3.1485549284864127E-2</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0.177465175730733</v>
+      </c>
+      <c r="I189" s="2">
+        <v>0.1020514976020952</v>
+      </c>
+      <c r="J189" s="2">
+        <v>0.17687510070661949</v>
+      </c>
+      <c r="K189" s="2">
+        <v>0.17651090776484099</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K169">
+  <autoFilter ref="A1:K189">
     <filterColumn colId="0">
       <filters>
         <filter val="10000"/>
@@ -6408,94 +7119,11 @@
         <filter val="all"/>
       </filters>
     </filterColumn>
-    <sortState ref="A129:K169">
-      <sortCondition descending="1" ref="E1:E169"/>
+    <sortState ref="A126:K186">
+      <sortCondition descending="1" ref="E1:E189"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E169">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F169">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G169">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H169">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I169">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J169">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K169">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>